--- a/technomarket/Product_URLs.xlsx
+++ b/technomarket/Product_URLs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A810"/>
+  <dimension ref="A1:A655"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,126 +443,126 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/neo-led-32h3m-hd-led-tv-09218598</t>
+          <t>https://www.technomarket.bg/proektori/xmart-portable-multimedia-projector-mpp-40-09225074</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09218598/6564644160ff1.pdf</t>
+          <t>https://www.technomarket.bg/proektori/epson-co-w01-09218978</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/neo-led-32hs3m-hd-smart-tv-09218599</t>
+          <t>https://www.technomarket.bg/proektori/samsung-sp-lff3cla-the-freestyle-smart-09216193</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09218599/65646684d6c8b.pdf</t>
+          <t>https://www.technomarket.bg/proektori/acer-projector-x128hp-09188047</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-32lq63006la-fhd-led-smart-tv-09205136</t>
+          <t>https://www.technomarket.bg/proektori/acer-projector-x1126ah-09175143</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09205136/65fd82c77fe9e.pdf</t>
+          <t>https://www.technomarket.bg/proektori/samsung-sp-lpu9d-premiere-smart-4k-09225101</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-ue-32t4302ae-hd-smart-tv-09212936</t>
+          <t>https://www.technomarket.bg/proektori/acer-projector-p5630-09173388</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09212936/641b07383d138.pdf</t>
+          <t>https://www.technomarket.bg/proektori/epson-co-fh01-09218979</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-43q7f-qled-smart-tv-09229138</t>
+          <t>https://www.technomarket.bg/proektori/hisense-c2-4k-2000-lm-09228841</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229138/6810c9c9ad17f.pdf</t>
+          <t>https://www.technomarket.bg/televizor/neo-led-32h3m-hd-led-tv-09218598</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/neo-led-24s25m-hd-smart-led-tv-09227153</t>
+          <t>https://www.technomarket.bg/televizor/neo-led-32hs3m-hd-smart-tv-09218599</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09227153/67b4781a8ac4c.pdf</t>
+          <t>https://www.technomarket.bg/televizor/lg-32lq63006la-fhd-led-smart-tv-09205136</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/neo-led-55us25m-uhd-smart-led-tv-09227156</t>
+          <t>https://www.technomarket.bg/televizor/samsung-ue-32t4302ae-hd-smart-tv-09212936</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09227156/67b479941e00b.pdf</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-43q7f-qled-smart-tv-09229138</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/neo-led-43fs3m-fhd-smart-tv-09218600</t>
+          <t>https://www.technomarket.bg/televizor/neo-led-24s25m-hd-smart-led-tv-09227153</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09218600/6564853b55a18.pdf</t>
+          <t>https://www.technomarket.bg/televizor/neo-led-55us25m-uhd-smart-led-tv-09227156</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/tcl-40s5k-fhd-qled-smart-tv-android-09229322</t>
+          <t>https://www.technomarket.bg/televizor/neo-led-43fs3m-fhd-smart-tv-09218600</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229322/682d91ee69a1c.pdf</t>
+          <t>https://www.technomarket.bg/televizor/tcl-40s5k-fhd-qled-smart-tv-android-09229322</t>
         </is>
       </c>
     </row>
@@ -576,5530 +576,4445 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229323/682d9175023ab.pdf</t>
+          <t>https://www.technomarket.bg/televizor/neo-led-24b25m-hd-led-tv-09227151</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/neo-led-24b25m-hd-led-tv-09227151</t>
+          <t>https://www.technomarket.bg/televizor/lg-oled42c41la-oled-smart-tv-09223482</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09227151/67b4773e6a927.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/tcl-65c6k-qd-mini-led-qled-smart-google-tv-09229316</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-oled42c41la-oled-smart-tv-09223482</t>
+          <t>https://www.technomarket.bg/televizor/tcl-43p7k-qled-smart-google-tv-09229320</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09223482/67163d39e1f4b.pdf</t>
+          <t>https://www.technomarket.bg/televizor/samsung-ue-32t5372cd-fhd-smart-tv-09213315</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/tcl-65c6k-qd-mini-led-qled-smart-google-tv-09229316</t>
+          <t>https://www.technomarket.bg/televizor/samsung-ue-55u8072f-uhd-smart-tv-09229128</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229316/682d86479acd9.pdf</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-43q8f-qled-smart-tv-09229144</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/tcl-43p7k-qled-smart-google-tv-09229320</t>
+          <t>https://www.technomarket.bg/televizor/sony-kd-32w800p1aep-hd-led-smart-tv-android-09211336</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229320/682d86ffd8951.pdf</t>
+          <t>https://www.technomarket.bg/televizor/neo-led-24cj24sm-smart-hd-led-tv-09224011</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-ue-32t5372cd-fhd-smart-tv-09213315</t>
+          <t>https://www.technomarket.bg/televizor/lg-43nano80a3b-nanocell-ai-smart-tv-09229533</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09213315/6437f28e86255.pdf</t>
+          <t>https://www.technomarket.bg/televizor/hisense-32a5q-qled-fhd-smart-tv-09229809</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-ue-55u8072f-uhd-smart-tv-09229128</t>
+          <t>https://www.technomarket.bg/televizor/tcl-32s4k-hd-qled-smart-tv-android-09229324</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229128/682d7dd4e48de.pdf</t>
+          <t>https://www.technomarket.bg/televizor/neo-led-2440tu-hd-led-tv-09191319</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-43q8f-qled-smart-tv-09229144</t>
+          <t>https://www.technomarket.bg/televizor/hisense-32a4n-hd-smart-tv-09223466</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229144/6810cd0b6e798.pdf</t>
+          <t>https://www.technomarket.bg/televizor/hisense-55a6n-uhd-smart-tv-09223471</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/sony-kd-32w800p1aep-hd-led-smart-tv-android-09211336</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-50q7f-qled-smart-tv-09229139</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09211336/63a2d90f82173.pdf</t>
+          <t>https://www.technomarket.bg/televizor/hisense-40a5nq-fhd-qled-smart-tv-09223469</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/neo-led-24cj24sm-smart-hd-led-tv-09224011</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-50qn90d-neo-qled-smart-tv-09221501</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09224011/66d7ec27811cc.pdf</t>
+          <t>https://www.technomarket.bg/televizor/samsung-ue-50du7192-uhd-smart-tv-09222295</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-43nano80a3b-nanocell-ai-smart-tv-09229533</t>
+          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65q8f-qled-smart-tv-09229147</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229533/682dd14fb18dd.pdf</t>
+          <t>https://www.technomarket.bg/televizor/neo-led-40fs25m-fhd-smart-tv-09227154</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/hisense-32a5q-qled-fhd-smart-tv-09229809</t>
+          <t>https://www.technomarket.bg/televizor/lg-oled55c51la-oled-evo-ai-smart-tv-09228876</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229809/685909b3ccdb1.PDF</t>
+          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65q80d-qled-smart-tv-09221236</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/tcl-32s4k-hd-qled-smart-tv-android-09229324</t>
+          <t>https://www.technomarket.bg/televizori-60-65/lg-oled65g53ls-oled-evo-ai-smart-tv-09229584</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229324/682d90f7ca85f.pdf</t>
+          <t>https://www.technomarket.bg/televizor/lg-55ua75003la-uhd-led-smart-tv-09230628</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/neo-led-2440tu-hd-led-tv-09191319</t>
+          <t>https://www.technomarket.bg/televizor/lg-24tq510s-pz-smart-hd-tv-monitor-09228935</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09191319/66011fa586846.pdf</t>
+          <t>https://www.technomarket.bg/televizor/lg-55nano81t3a-uhd-led-smart-tv-09222078</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/hisense-32a4n-hd-smart-tv-09223466</t>
+          <t>https://www.technomarket.bg/televizor/lg-55qned82a3b-qned-ai-smart-tv-09229540</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09223466/669f93a011966.PDF</t>
+          <t>https://www.technomarket.bg/televizor/kivi-32h710qb-hd-smart-google-tv-09225959</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-50q7f-qled-smart-tv-09229139</t>
+          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65s90f-oled-smart-tv-09229158</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229139/6810ca2a79adb.pdf</t>
+          <t>https://www.technomarket.bg/televizor/samsung-ue-50u8072f-uhd-smart-tv-09229127</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/hisense-55a6n-uhd-smart-tv-09223471</t>
+          <t>https://www.technomarket.bg/televizor/lg-oled48c51la-oled-evo-ai-smart-tv-09229691</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09223471/669f9cb79d66b.PDF</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-55q7f-qled-smart-tv-09229140</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/hisense-40a5nq-fhd-qled-smart-tv-09223469</t>
+          <t>https://www.technomarket.bg/televizor/samsung-ue-32f6002f-fhd-smart-tv-09229124</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09223469/669f9ae4b5e75.PDF</t>
+          <t>https://www.technomarket.bg/televizori-60-65/tcl-65c655-qled-smart-google-tv-09222162</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-50qn90d-neo-qled-smart-tv-09221501</t>
+          <t>https://www.technomarket.bg/televizor/lg-oled55c41la-oled-smart-tv-09224736</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221501/66168a59d99e9.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/lg-65nano80a3b-nanocell-ai-smart-tv-09230629</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-ue-50du7192-uhd-smart-tv-09222295</t>
+          <t>https://www.technomarket.bg/televizori-60-65/lg-oled65c41la-oled-smart-tv-09222070</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222295/6668478544156.pdf</t>
+          <t>https://www.technomarket.bg/televizor/philips-55pus8510-uhd-qled-smart-tv-09232282</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65q80d-qled-smart-tv-09221236</t>
+          <t>https://www.technomarket.bg/televizor/lg-50qned87a3d-qned-evo-ai-smart-tv-09229539</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221236/6606aba02bac5.pdf</t>
+          <t>https://www.technomarket.bg/televizor/lg-55qned80t3a-qned-smart-tv-09224730</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65q8f-qled-smart-tv-09229147</t>
+          <t>https://www.technomarket.bg/televizor/lg-43qned80t3a-qned-smart-tv-09224729</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229147/6810d35b138ca.pdf</t>
+          <t>https://www.technomarket.bg/televizor/neo-led-3920tu-hd-led-tv-09191321</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-oled55c51la-oled-evo-ai-smart-tv-09228876</t>
+          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-77s90d-oled-smart-tv-09222482</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09228876/680f82e98977d.pdf</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-55qn85d-neo-qled-smart-tv-09221509</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/neo-led-40fs25m-fhd-smart-tv-09227154</t>
+          <t>https://www.technomarket.bg/televizori-60-65/hisense-65a6n-uhd-smart-tv-09223799</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09227154/67b478e7c1e5b.pdf</t>
+          <t>https://www.technomarket.bg/televizori-75-83/hisense-75u7nq-mini-led-qled-smart-tv-09223809</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/lg-oled65g53ls-oled-evo-ai-smart-tv-09229584</t>
+          <t>https://www.technomarket.bg/televizor/tcl-55p755-uhd-led-smart-google-tv-09222157</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229584/682dd6903a433.pdf</t>
+          <t>https://www.technomarket.bg/televizor/hisense-50a6q-uhd-smart-tv-09229813</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-55ua75003la-uhd-led-smart-tv-09230628</t>
+          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65q7f-qled-smart-tv-09229141</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09230628/68555067aeaf2.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/lg-65qned85a3c-qned-smart-tv-09230632</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-55nano81t3a-uhd-led-smart-tv-09222078</t>
+          <t>https://www.technomarket.bg/televizor/tcl-43s5k-fhd-qled-smart-tv-android-09230853</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222078/66609e4a8c726.pdf</t>
+          <t>https://www.technomarket.bg/televizor/tcl-55c6k-qd-mini-led-qled-smart-google-tv-09229317</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-24tq510s-pz-smart-hd-tv-monitor-09228935</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-48s90f-oled-smart-tv-09229156</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09228935/680f84ca5ac9f.pdf</t>
+          <t>https://www.technomarket.bg/televizori-75-83/tcl-75c805-qled-smart-google-tv-09218208</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/kivi-32h710qb-hd-smart-google-tv-09225959</t>
+          <t>https://www.technomarket.bg/televizor/neo-43qled22-smart-qled-tv-09209100</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09225959/67d927b8eda0a.pdf</t>
+          <t>https://www.technomarket.bg/televizor/hisense-40a5q-qled-fhd-smart-tv-09229811</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-55qned82a3b-qned-ai-smart-tv-09229540</t>
+          <t>https://www.technomarket.bg/televizor/samsung-ue-43du8572-uhd-smart-tv-09222141</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229540/682dd3ceb87b6.pdf</t>
+          <t>https://www.technomarket.bg/televizor/samsung-ue-55du8572-uhd-smart-tv-09221741</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65s90f-oled-smart-tv-09229158</t>
+          <t>https://www.technomarket.bg/televizori-75-83/samsung-ue-85du7192-uhd-smart-tv-09222145</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229158/682d7a832b3b0.pdf</t>
+          <t>https://www.technomarket.bg/televizor/neo-led-55sj24sm-uhd-smart-tv-09224017</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-ue-50u8072f-uhd-smart-tv-09229127</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-55ls03d-the-frame-qled-smart-tv-09221576</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229127/682d7d8ed38aa.pdf</t>
+          <t>https://www.technomarket.bg/televizor/hisense-55u7nq-mini-led-qled-smart-tv-09223807</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-oled48c51la-oled-evo-ai-smart-tv-09229691</t>
+          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65qn70f-neo-qled-smart-tv-09229167</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229691/6830291b962e4.pdf</t>
+          <t>https://www.technomarket.bg/televizor/philips-55pus8010-uhd-led-smart-tv-09232281</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-ue-32f6002f-fhd-smart-tv-09229124</t>
+          <t>https://www.technomarket.bg/televizor/philips-40pfs6000-fhd-led-smart-tv-09232290</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229124/68219f1f42757.pdf</t>
+          <t>https://www.technomarket.bg/televizor/lg-32lq630b6la-hd-led-smart-tv-09205134</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-55q7f-qled-smart-tv-09229140</t>
+          <t>https://www.technomarket.bg/televizori-60-65/samsung-ue-65u8072f-uhd-smart-tv-09229129</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229140/6810ca8f8b074.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/tcl-65p7k-qled-smart-google-tv-09229318</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/tcl-65c655-qled-smart-google-tv-09222162</t>
+          <t>https://www.technomarket.bg/televizor/tcl-55p7k-qled-smart-google-tv-09229321</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222162/666c9ab6cfa69.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/tcl-65v6b-uhd-led-smart-google-tv-09222152</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-oled55c41la-oled-smart-tv-09224736</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-50qn80f-neo-qled-smart-tv-09229161</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09224736/66ed7f9c47a23.pdf</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-50q8f-qled-smart-tv-09229145</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/lg-65nano80a3b-nanocell-ai-smart-tv-09230629</t>
+          <t>https://www.technomarket.bg/televizor/lg-oled55g53ls-oled-evo-ai-smart-tv-09229583</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09230629/68555a064718b.pdf</t>
+          <t>https://www.technomarket.bg/televizor/lg-43qned87a3d-qned-evo-ai-smart-tv-09231750</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/lg-oled65c41la-oled-smart-tv-09222070</t>
+          <t>https://www.technomarket.bg/televizor/tcl-50c6k-qd-mini-led-qled-smart-google-tv-09229725</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222070/665ec96f8a34a.pdf</t>
+          <t>https://www.technomarket.bg/televizor/kivi-43u760qb-uhd-smart-android-tv-09225960</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-50qned87a3d-qned-evo-ai-smart-tv-09229539</t>
+          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75q7f-qled-smart-tv-09229142</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229539/682dd3917d174.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/lg-oled65c51la-oled-evo-ai-smart-tv-09229535</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/philips-55pus8510-uhd-qled-smart-tv-09232282</t>
+          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65s95d-oled-smart-tv-09221490</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09232282/68a55ed8ac1f3.pdf</t>
+          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75q80d-qled-smart-tv-09221763</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-55qned80t3a-qned-smart-tv-09224730</t>
+          <t>https://www.technomarket.bg/televizor/lg-50ua75003la-uhd-led-smart-tv-09230627</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09224730/66ed7e7c9b118.pdf</t>
+          <t>https://www.technomarket.bg/televizor/neo-led-3930tu-hd-smart-led-tv-09191322</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-43qned80t3a-qned-smart-tv-09224729</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-50ls03d-the-frame-qled-smart-tv-09221575</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09224729/66ed7e4444827.pdf</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-55s90d-oled-smart-tv-09222481</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/neo-led-3920tu-hd-led-tv-09191321</t>
+          <t>https://www.technomarket.bg/televizor/neo-led-3230tu-hd-smart-led-tv-09191320</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09191321/660120565c506.pdf</t>
+          <t>https://www.technomarket.bg/televizor/neo-50qled22-smart-qled-tv-09209101</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/hisense-65a6n-uhd-smart-tv-09223799</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-43qn90d-neo-qled-smart-tv-09221502</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09223799/66b9e9459e727.PDF</t>
+          <t>https://www.technomarket.bg/televizor/lg-oled42c51la-oled-evo-ai-smart-tv-09229689</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-77s90d-oled-smart-tv-09222482</t>
+          <t>https://www.technomarket.bg/televizori-75-83/samsung-ue-75du8072-uhd-smart-tv-09221740</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222482/666bf7214fd95.pdf</t>
+          <t>https://www.technomarket.bg/televizor/sony-bravia-3-k-50s39b-uhd-led-smart-tv-09229620</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-55qn85d-neo-qled-smart-tv-09221509</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-55s90f-oled-smart-tv-09229157</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221509/661676f46b12c.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/lg-65nano81t3a-uhd-led-smart-tv-09222079</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/hisense-75u7nq-mini-led-qled-smart-tv-09223809</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-42s90f-oled-smart-tv-09233615</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09223809/66b9edb494a25.PDF</t>
+          <t>https://www.technomarket.bg/televizor/lg-oled55b53la-oled-ai-smart-tv-09228875</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/tcl-75c805-qled-smart-google-tv-09218208</t>
+          <t>https://www.technomarket.bg/televizor/sony-bravia-3-k-55s39b-uhd-led-smart-tv-09229621</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09218208/65327f074eea1.pdf</t>
+          <t>https://www.technomarket.bg/televizori-75-83/lg-75ua75006laq-uhd-led-smart-tv-09230626</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/hisense-50a6q-uhd-smart-tv-09229813</t>
+          <t>https://www.technomarket.bg/televizori-75-83/lg-75qned87a3b-qned-evo-ai-smart-tv-09229537</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229813/686b90903c7b2.PDF</t>
+          <t>https://www.technomarket.bg/televizor/samsung-ue-43u8072f-uhd-smart-tv-09229126</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/tcl-55p755-uhd-led-smart-google-tv-09222157</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-32ls03c-the-frame-qled-smart-tv-09215423</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222157/6670185bb9819.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/lg-65qned70a6a-qned-ai-smart-tv-09231745</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/tcl-43s5k-fhd-qled-smart-tv-android-09230853</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-55q8f-qled-smart-tv-09229146</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09230853/685d2c9b73ed9.pdf</t>
+          <t>https://www.technomarket.bg/televizor/tcl-55c655-pro-qled-smart-google-tv-09222166</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/lg-65qned85a3c-qned-smart-tv-09230632</t>
+          <t>https://www.technomarket.bg/televizori-75-83/samsung-ue-75du7192-uhd-smart-tv-09222144</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09230632/685563106308d.pdf</t>
+          <t>https://www.technomarket.bg/televizor/tcl-43s5403a-fhd-led-smart-tv-android-09227396</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/tcl-55c6k-qd-mini-led-qled-smart-google-tv-09229317</t>
+          <t>https://www.technomarket.bg/televizori-75-83/sony-xr-77a95lpaep-oled-smart-tv-android-09216818</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229317/682d85bbd5dca.pdf</t>
+          <t>https://www.technomarket.bg/televizor/sony-bravia-3-k-43s39-uhd-led-smart-tv-09229619</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-48s90f-oled-smart-tv-09229156</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/tcl-85c6k-qd-mini-led-qled-smart-google-tv-09229727</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229156/682d79ba15163.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/hisense-65u7q-mini-led-qled-ai-smart-tv-09229818</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65q7f-qled-smart-tv-09229141</t>
+          <t>https://www.technomarket.bg/televizor/hisense-55a6q-uhd-smart-tv-09229814</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229141/6810caf0ac230.pdf</t>
+          <t>https://www.technomarket.bg/televizori-75-83/hisense-75e7nq-pro-uhd-qled-smart-tv-09223474</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-ue-43du8572-uhd-smart-tv-09222141</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-50q80d-qled-smart-tv-09222480</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222141/664da7258e1a4.pdf</t>
+          <t>https://www.technomarket.bg/televizori-75-83/sony-bravia-8-k-77xr80-oled-smart-tv-android-09223747</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-ue-55du8572-uhd-smart-tv-09221741</t>
+          <t>https://www.technomarket.bg/televizori-60-65/hisense-65e7nq-uhd-qled-smart-tv-09223804</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221741/66275bad6302a.pdf</t>
+          <t>https://www.technomarket.bg/televizor/kivi-43u720qb-uhd-qled-google-tv-09225963</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/neo-43qled22-smart-qled-tv-09209100</t>
+          <t>https://www.technomarket.bg/televizor/lg-50qned82a3b-qned-ai-smart-tv-09229538</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09209100/631204e174ca5.pdf</t>
+          <t>https://www.technomarket.bg/televizori-75-83/lg-oled83c41la-oled-smart-tv-09222072</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/hisense-40a5q-qled-fhd-smart-tv-09229811</t>
+          <t>https://www.technomarket.bg/televizor/sony-xr-55x90laep-uhd-led-smart-tv-android-09221767</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229811/68590a6a12434.PDF</t>
+          <t>https://www.technomarket.bg/televizor/tcl-55c7k-qd-mini-led-qled-smart-google-tv-09235377</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/samsung-ue-85du7192-uhd-smart-tv-09222145</t>
+          <t>https://www.technomarket.bg/televizori-75-83/sony-bravia-7-k-75xr70paep-mini-led-smart-tv-android-09225112</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222145/664d876c55b3a.pdf</t>
+          <t>https://www.technomarket.bg/televizor/kivi-32h550nb-hd-led-tv-09211441</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/hisense-55u7nq-mini-led-qled-smart-tv-09223807</t>
+          <t>https://www.technomarket.bg/televizori-60-65/hisense-65u7nq-mini-led-qled-smart-tv-09223808</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09223807/66b9ed0629268.PDF</t>
+          <t>https://www.technomarket.bg/televizori-75-83/lg-75nano80a3b-nanocell-ai-smart-tv-09231746</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-55ls03d-the-frame-qled-smart-tv-09221576</t>
+          <t>https://www.technomarket.bg/televizor/lg-50qned80t3a-qned-smart-tv-09226558</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221576/661e5f064f0d4.pdf</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/sony-bravia-5-k-85xr55-mini-led-smart-tv-09231058</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/philips-55pus8010-uhd-led-smart-tv-09232281</t>
+          <t>https://www.technomarket.bg/televizor/sony-kd-50x80lpaep-uhd-led-smart-tv-android-09221528</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09232281/68a55e5a996c8.pdf</t>
+          <t>https://www.technomarket.bg/televizori-75-83/tcl-75p8k-qled-smart-google-tv-09222154</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65qn70f-neo-qled-smart-tv-09229167</t>
+          <t>https://www.technomarket.bg/televizori-75-83/tcl-75c6ks-qd-mini-led-qled-smart-google-tv-09235379</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229167/6811cdb8be331.pdf</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-55qn95d-neo-qled-smart-tv-09221495</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/neo-led-55sj24sm-uhd-smart-tv-09224017</t>
+          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-77s85f-oled-smart-tv-09229176</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09224017/66d7ee2c16c32.pdf</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-50qn90f-neo-qled-smart-tv-09229151</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/samsung-ue-65u8072f-uhd-smart-tv-09229129</t>
+          <t>https://www.technomarket.bg/televizor/neo-led-50sj24sm-uhd-smart-tv-09224016</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229129/682d7e2071876.pdf</t>
+          <t>https://www.technomarket.bg/televizor/philips-55pus9010-uhd-qled-smart-tv-09232283</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/philips-40pfs6000-fhd-led-smart-tv-09232290</t>
+          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75qn80f-neo-qled-smart-tv-09229164</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09232290/68a5611ab6767.pdf</t>
+          <t>https://www.technomarket.bg/televizor/samsung-ue-50du8072-uhd-smart-tv-09221580</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-32lq630b6la-hd-led-smart-tv-09205134</t>
+          <t>https://www.technomarket.bg/televizor/hisense-40a4q-fhd-smart-tv-09229810</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09205134/65fd80ce834c0.pdf</t>
+          <t>https://www.technomarket.bg/televizori-75-83/lg-oled77g51lw-oled-evo-ai-smart-tv-09229581</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/tcl-65p7k-qled-smart-google-tv-09229318</t>
+          <t>https://www.technomarket.bg/televizori-60-65/lg-oled65g51lw-oled-evo-ai-smart-tv-09229693</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229318/682d89089ba30.pdf</t>
+          <t>https://www.technomarket.bg/televizor/kivi-32f720qb-fhd-qled-google-tv-09225961</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/kivi-43u760qb-uhd-smart-android-tv-09225960</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-55qn70f-neo-qled-smart-tv-09229166</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09225960/674d444959897.pdf</t>
+          <t>https://www.technomarket.bg/televizori-75-83/tcl-75c6k-qd-mini-led-qled-smart-google-tv-09229726</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75q7f-qled-smart-tv-09229142</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/tcl-98c655-qled-smart-google-tv-09222165</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229142/6810cb5b49388.pdf</t>
+          <t>https://www.technomarket.bg/televizor/lg-55qned87a3b-qned-evo-ai-smart-tv-09229541</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/tcl-65v6b-uhd-led-smart-google-tv-09222152</t>
+          <t>https://www.technomarket.bg/televizor/lg-43qned82a3b-qned-ai-smart-tv-09231748</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222152/6670211ec3e5e.pdf</t>
+          <t>https://www.technomarket.bg/televizor/sony-bravia-5-k-55xr55b-mini-led-smart-tv-09229625</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/tcl-55p7k-qled-smart-google-tv-09229321</t>
+          <t>https://www.technomarket.bg/televizor/hisense-43a6q-uhd-smart-tv-09229812</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229321/682d887712a5a.pdf</t>
+          <t>https://www.technomarket.bg/televizor/hisense-43a6n-uhd-smart-tv-09223470</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-50q8f-qled-smart-tv-09229145</t>
+          <t>https://www.technomarket.bg/televizor/sony-bravia-3-k-50s35b-uhd-led-smart-tv-09229415</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229145/6810cdb8675e8.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65s85f-oled-smart-tv-09229175</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-oled55g53ls-oled-evo-ai-smart-tv-09229583</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/lg-86qned85a3c-qned-smart-tv-09231743</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229583/682dd6560fc63.pdf</t>
+          <t>https://www.technomarket.bg/televizori-75-83/samsung-ue-75u8072f-uhd-smart-tv-09229130</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-43qned87a3d-qned-evo-ai-smart-tv-09231750</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-55qn90d-neo-qled-smart-tv-09221500</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/tcl-50c6k-qd-mini-led-qled-smart-google-tv-09229725</t>
+          <t>https://www.technomarket.bg/televizori-60-65/tcl-65p6k-uhd-led-smart-google-tv-09231911</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229725/684bee76d84a3.pdf</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-55q80d-qled-smart-tv-09221235</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/lg-oled65c51la-oled-evo-ai-smart-tv-09229535</t>
+          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75q70d-qled-smart-tv-09221234</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229535/682dd2241bd29.pdf</t>
+          <t>https://www.technomarket.bg/televizor/philips-32pfs6908-fhd-led-smart-tv-09214322</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-50qn80f-neo-qled-smart-tv-09229161</t>
+          <t>https://www.technomarket.bg/televizori-60-65/philips-65pus7608-uhd-led-smart-tv-09214337</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229161/6811c5f3e9364.pdf</t>
+          <t>https://www.technomarket.bg/televizor/tcl-43s5400a-fhd-led-smart-tv-android-09222149</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65s95d-oled-smart-tv-09221490</t>
+          <t>https://www.technomarket.bg/televizor/tcl-43v6b-uhd-led-smart-google-tv-09222150</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221490/66178471ae8a7.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65ls03d-the-frame-qled-smart-tv-09221577</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75q80d-qled-smart-tv-09221763</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-55s95d-oled-smart-tv-09221491</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221763/662a2d0862604.pdf</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/hisense-85e7nq-uhd-qled-smart-tv-09225159</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-50ua75003la-uhd-led-smart-tv-09230627</t>
+          <t>https://www.technomarket.bg/televizor/philips-55pus8079-uhd-led-smart-tv-09221899</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09230627/68554fd3cdac9.pdf</t>
+          <t>https://cdn.technomarket.bg/uploads/library/product/09221899/663e31fe3ae4d.JPG</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/neo-led-3930tu-hd-smart-led-tv-09191322</t>
+          <t>https://www.technomarket.bg/televizor/lg-43nano81t3a-uhd-led-smart-tv-09222077</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09191322/660120ec1ba70.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65qn90d-neo-qled-smart-tv-09221499</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-50ls03d-the-frame-qled-smart-tv-09221575</t>
+          <t>https://www.technomarket.bg/televizori-60-65/hisense-65e7nq-pro-uhd-qled-smart-tv-09223473</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221575/661e5e3b02131.pdf</t>
+          <t>https://www.technomarket.bg/televizori-75-83/tcl-75p7k-qled-smart-google-tv-09222172</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-55s90d-oled-smart-tv-09222481</t>
+          <t>https://www.technomarket.bg/televizori-60-65/lg-65qned85t3c-qned-smart-tv-09224732</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222481/666bea5d98b6f.pdf</t>
+          <t>https://www.technomarket.bg/televizor/philips-32phs6009-hd-led-smart-tv-09221676</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-oled42c51la-oled-evo-ai-smart-tv-09229689</t>
+          <t>https://www.technomarket.bg/televizori-60-65/sony-xr-65a75kaep-oled-smart-tv-android-09208447</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229689/6830289a5eda8.pdf</t>
+          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75q60d-qled-smart-tv-09221231</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-55s90f-oled-smart-tv-09229157</t>
+          <t>https://www.technomarket.bg/televizor/tcl-50hg60e-uhd-led-smart-android-tv-09227349</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229157/682d7a2c94c24.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65q70d-qled-smart-tv-09221233</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-42s90f-oled-smart-tv-09233615</t>
+          <t>https://www.technomarket.bg/televizor/philips-43pus8009-12-uhd-led-smart-tv-09225836</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09233615/68a2f9378cfa0.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/sony-xr-65x90laep-uhd-led-smart-tv-android-09221531</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/lg-65nano81t3a-uhd-led-smart-tv-09222079</t>
+          <t>https://www.technomarket.bg/televizor/lg-oled55g43ls-oled-smart-tv-09222069</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222079/6660a23f4cc28.pdf</t>
+          <t>https://www.technomarket.bg/televizor/hisense-55u6kq-mini-led-qled-smart-tv-09219277</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/samsung-ue-75du8072-uhd-smart-tv-09221740</t>
+          <t>https://www.technomarket.bg/televizor/lg-43qned70a6a-qned-smart-tv-09236665</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221740/66275dcf189c8.pdf</t>
+          <t>https://www.technomarket.bg/televizori-75-83/samsung-ue-75du8572-uhd-smart-tv-09222143</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/sony-bravia-3-k-50s39b-uhd-led-smart-tv-09229620</t>
+          <t>https://www.technomarket.bg/televizor/samsung-ue-55du8072-uhd-smart-tv-09221581</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229620/6836abebd4365.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/samsung-ue-65du8572-uhd-smart-tv-09222298</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-oled55b53la-oled-ai-smart-tv-09228875</t>
+          <t>https://www.technomarket.bg/televizor/tcl-55c805-qled-smart-google-tv-09217477</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09228875/680f8289ebbe2.pdf</t>
+          <t>https://www.technomarket.bg/televizori-75-83/lg-75nano81t3a-uhd-led-smart-tv-09222080</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-43qn90d-neo-qled-smart-tv-09221502</t>
+          <t>https://www.technomarket.bg/televizor/hisense-50u7q-mini-led-qled-ai-smart-tv-09230625</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221502/66168b0ec840e.pdf</t>
+          <t>https://www.technomarket.bg/televizor/philips-43pus8010-uhd-led-smart-tv-09232274</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/neo-led-3230tu-hd-smart-led-tv-09191320</t>
+          <t>https://www.technomarket.bg/televizori-60-65/sony-kd-65x85l-uhd-led-smart-tv-android-09214085</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09191320/66011ffb23801.pdf</t>
+          <t>https://www.technomarket.bg/televizor/tcl-50p7k-qled-smart-google-tv-09229319</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/neo-50qled22-smart-qled-tv-09209101</t>
+          <t>https://www.technomarket.bg/televizor/lg-24tq510s-wz-smart-hd-tv-monitor-09228936</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09209101/6312058d8be33.pdf</t>
+          <t>https://www.technomarket.bg/televizor/kivi-kids-tv-32-fhd-android-tv-09219279</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/sony-bravia-3-k-55s39b-uhd-led-smart-tv-09229621</t>
+          <t>https://www.technomarket.bg/televizor/sony-bravia-3-k-43s35-uhd-led-smart-tv-09229414</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229621/6836ad0a92b4a.pdf</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/tcl-85p7k-qled-smart-google-tv-09222170</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/lg-75ua75006laq-uhd-led-smart-tv-09230626</t>
+          <t>https://www.technomarket.bg/televizori-75-83/tcl-75c7k-qd-mini-led-qled-smart-google-tv-09229728</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09230626/68554f394d9d6.pdf</t>
+          <t>https://cdn.technomarket.bg/uploads/library/product/09229728/684be901b84c9.JPG</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/lg-75qned87a3b-qned-evo-ai-smart-tv-09229537</t>
+          <t>https://www.technomarket.bg/televizori-60-65/sony-xr-65a95laep-oled-smart-tv-android-09216817</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229537/682dd5c7dbee3.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/philips-65pus8079-uhd-led-smart-tv-09221900</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-32ls03c-the-frame-qled-smart-tv-09215423</t>
+          <t>https://www.technomarket.bg/televizori-60-65/samsung-ue-65du8072-uhd-smart-tv-09221582</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09215423/64a7eb273697d.pdf</t>
+          <t>https://www.technomarket.bg/televizor/hisense-43e7nq-uhd-qled-smart-tv-09223802</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-ue-43u8072f-uhd-smart-tv-09229126</t>
+          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75qn85d-neo-qled-smart-tv-09221507</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229126/682d7d370962f.pdf</t>
+          <t>https://www.technomarket.bg/televizor/hisense-43e7q-uhd-qled-smart-tv-09231716</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/lg-65qned70a6a-qned-ai-smart-tv-09231745</t>
+          <t>https://www.technomarket.bg/televizori-75-83/lg-oled77m49la-oled-smart-tv-09225161</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09231745/68a87f43a560c.pdf</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/lg-oled97g42lw-oled-smart-tv-09224735</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-55q8f-qled-smart-tv-09229146</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/sony-bravia-9-k-85xr90paep-mini-led-smart-tv-android-09225115</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229146/6810d274a38c3.pdf</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/hisense-110uxnq-mini-led-qled-smart-tv-09225157</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/tcl-55c655-pro-qled-smart-google-tv-09222166</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/samsung-qe-98qn990f-8k-neo-qled-smart-tv-09236376</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222166/666cab83e53cc.pdf</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/hisense-85u7q-mini-led-qled-ai-smart-tv-09231728</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/samsung-ue-75du7192-uhd-smart-tv-09222144</t>
+          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75qn90d-neo-qled-smart-tv-09221498</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222144/664d8695742e8.pdf</t>
+          <t>https://www.technomarket.bg/televizori-75-83/lg-oled77m39la-oled-smart-tv-09220752</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/hisense-75e7nq-pro-uhd-qled-smart-tv-09223474</t>
+          <t>https://www.technomarket.bg/televizori-60-65/sony-bravia-7-k-65xr70paep-mini-led-smart-tv-android-09225111</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09223474/669f9e6b41608.PDF</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/sony-bravia-7-k-85xr70paep-mini-led-smart-tv-android-09225113</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/tcl-43s5403a-fhd-led-smart-tv-android-09227396</t>
+          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75qn990f-8k-neo-qled-smart-tv-09231670</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09227396/67b73d343367b.pdf</t>
+          <t>https://www.technomarket.bg/televizor/hisense-55s7nq-canvas-frame-qled-tv-09227350</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/sony-xr-77a95lpaep-oled-smart-tv-android-09216818</t>
+          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65qn990f-8k-neo-qled-smart-tv-09236374</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09216818/6512ba2a7dd75.pdf</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/samsung-qe-98q80c-qled-smart-tv-09214589</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/sony-xr-55x90laep-uhd-led-smart-tv-android-09221767</t>
+          <t>https://www.technomarket.bg/televizori-75-83/tcl-75v6c-uhd-led-smart-google-tv-09222171</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221767/662b473cb13fd.pdf</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/hisense-85e7q-uhd-qled-smart-tv-09231726</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-50q80d-qled-smart-tv-09222480</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/lg-86qned82a3b-qned-ai-smart-tv-09231749</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222480/666be8f04f07d.pdf</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-50ls03f-the-frame-qled-smart-tv-09229133</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/sony-bravia-3-k-43s39-uhd-led-smart-tv-09229619</t>
+          <t>https://www.technomarket.bg/televizori-75-83/sony-xr-83a80lpaep-oled-smart-tv-android-09222286</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229619/6836ab5c7a494.pdf</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/tcl-85p8k-qled-smart-google-tv-09230857</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/tcl-85c6k-qd-mini-led-qled-smart-google-tv-09229727</t>
+          <t>https://www.technomarket.bg/televizori-75-83/tcl-75c8k-qd-mini-led-qled-smart-google-tv-09230856</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229727/684bef7c542cb.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/tcl-65c8k-qd-mini-led-qled-smart-google-tv-09235378</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/hisense-65u7q-mini-led-qled-ai-smart-tv-09229818</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/hisense-85a6q-uhd-smart-tv-09231725</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229818/6874ed04ce666.PDF</t>
+          <t>https://cdn.technomarket.bg/uploads/library/product/09231725/687751576698c.jpg</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/hisense-55a6q-uhd-smart-tv-09229814</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/samsung-ue-98du9072-uhd-smart-tv-09222987</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229814/686b9155346ac.PDF</t>
+          <t>https://www.technomarket.bg/televizori-60-65/hisense-65u8nq-mini-led-qled-smart-tv-09226557</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/kivi-43u720qb-uhd-qled-google-tv-09225963</t>
+          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75q80c-qled-smart-tv-09212957</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09225963/67d92820f3354.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65ls03f-the-frame-pro-qled-smart-tv-09229135</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-50qned82a3b-qned-ai-smart-tv-09229538</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/samsung-qe-85qn990f-8k-neo-qled-smart-tv-09236375</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229538/682dd2a6cb49d.pdf</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/hisense-85u7q-pro-mini-led-qled-ai-smart-09229822</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/lg-oled83c41la-oled-smart-tv-09222072</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/samsung-qe-100qn80f-neo-qled-smart-tv-09231931</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222072/665ed12804413.pdf</t>
+          <t>https://www.technomarket.bg/televizori-75-83/hisense-75e7q-pro-uhd-qled-smart-tv-09231723</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/tcl-55c7k-qd-mini-led-qled-smart-google-tv-09235377</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-43ls03d-the-frame-qled-smart-tv-09221574</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09235377/68c3d5fdc6b8c.pdf</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/hisense-116uxq-rgb-mini-led-uled-ai-smart-tv-09236151</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/sony-bravia-8-k-77xr80-oled-smart-tv-android-09223747</t>
+          <t>https://www.technomarket.bg/televizor/philips-48oled820-uhd-oled-smart-tv-09232276</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09223747/66b4a862e97fe.pdf</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/sony-bravia-5-k-98xr55-mini-led-smart-tv-09231845</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/hisense-65e7nq-uhd-qled-smart-tv-09223804</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/samsung-qe-85q8f-qled-smart-tv-09229149</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09223804/66b9eb9209fb7.PDF</t>
+          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-83s85f-oled-smart-tv-09229177</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/sony-bravia-7-k-75xr70paep-mini-led-smart-tv-android-09225112</t>
+          <t>https://www.technomarket.bg/televizori-60-65/lg-65qned87a3b-qned-evo-ai-smart-tv-09229536</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09225112/6710f37011f49.pdf</t>
+          <t>https://www.technomarket.bg/televizori-75-83/sony-kd-75x75wlpaep-uhd-led-smart-tv-android-09214086</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/kivi-32h550nb-hd-led-tv-09211441</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-55ls03f-the-frame-qled-smart-tv-09229134</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09211441/63ad874c9f009.pdf</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-43ls03f-the-frame-qled-smart-tv-09229132</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/hisense-65u7nq-mini-led-qled-smart-tv-09223808</t>
+          <t>https://www.technomarket.bg/televizor/neo-55qled22-smart-qled-tv-09209102</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09223808/66b9ed6fd555a.PDF</t>
+          <t>https://www.technomarket.bg/televizor/neo-led-50us25m-uhd-smart-led-tv-09227155</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/sony-bravia-5-k-85xr55-mini-led-smart-tv-09231058</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/samsung-qe-115qn90f-neo-qled-smart-tv-09231933</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09231058/6870b22ec540e.pdf</t>
+          <t>https://www.technomarket.bg/televizor/neo-led-24n1s2-hd-led-tv-09201340</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-50qned80t3a-qned-smart-tv-09226558</t>
+          <t>https://www.technomarket.bg/televizori-60-65/sony-kd-65x75wlpaep-uhd-led-smart-tv-android-09214014</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09226558/678a6a15575d4.pdf</t>
+          <t>https://www.technomarket.bg/televizor/neo-led-4020-fhd-smart-tv-09183575</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/tcl-75p8k-qled-smart-google-tv-09222154</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/hisense-85e7q-pro-uhd-qled-smart-tv-09231727</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222154/682d9077991c9.pdf</t>
+          <t>https://www.technomarket.bg/televizor/neo-led-24t2s2-hd-led-tv-09201341</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/sony-kd-50x80lpaep-uhd-led-smart-tv-android-09221528</t>
+          <t>https://www.technomarket.bg/televizor/sony-bravia-8-k-55xr80paep-oled-smart-tv-android-09222967</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221528/6616489dbf0dd.pdf</t>
+          <t>https://www.technomarket.bg/televizor/hisense-55e7q-pro-uhd-qled-smart-tv-09231718</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/lg-75nano80a3b-nanocell-ai-smart-tv-09231746</t>
+          <t>https://www.technomarket.bg/televizori-75-83/lg-oled77c51la-oled-evo-ai-smart-tv-09229692</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09231746/68a55a8e02e42.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/tcl-65c7k-qd-mini-led-qled-smart-google-tv-09231912</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/neo-led-50sj24sm-uhd-smart-tv-09224016</t>
+          <t>https://www.technomarket.bg/televizor/philips-55oled820-uhd-oled-smart-tv-09232280</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09224016/66d7ede49516f.pdf</t>
+          <t>https://www.technomarket.bg/televizor/philips-48oled770-uhd-oled-smart-tv-09232275</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-ue-50du8072-uhd-smart-tv-09221580</t>
+          <t>https://www.technomarket.bg/televizor/sony-xr-55a80laep-oled-smart-tv-android-09213300</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221580/661e6b1adda85.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/lg-65qned80a3a-qned-smart-tv-09230631</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-55qn70f-neo-qled-smart-tv-09229166</t>
+          <t>https://www.technomarket.bg/televizor/lg-50nano80a3b-nanocell-ai-smart-tv-09228878</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229166/6811cd2877161.pdf</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/sony-bravia-3-k-85s35bp-uhd-led-smart-tv-09231055</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/tcl-75c6k-qd-mini-led-qled-smart-google-tv-09229726</t>
+          <t>https://www.technomarket.bg/televizor/lg-43qned80a3a-qned-smart-tv-09231747</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229726/684bef16483f7.pdf</t>
+          <t>https://www.technomarket.bg/televizor/sony-xr-42a90kaep-oled-smart-tv-android-09208449</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75qn80f-neo-qled-smart-tv-09229164</t>
+          <t>https://www.technomarket.bg/televizori-60-65/lg-oled65b53la-oled-ai-smart-tv-09230630</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229164/6811c91922c97.pdf</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/hisense-100u7kq-mini-led-qled-smart-tv-09221566</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/philips-55pus9010-uhd-qled-smart-tv-09232283</t>
+          <t>https://www.technomarket.bg/televizori-75-83/philips-77oled820-uhd-oled-smart-tv-09232289</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09232283/68a55f100c1c6.pdf</t>
+          <t>https://www.technomarket.bg/televizori-75-83/lg-75qned85a3c-qned-smart-tv-09231742</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/hisense-40a4q-fhd-smart-tv-09229810</t>
+          <t>https://www.technomarket.bg/televizori-60-65/philips-65pus9010-uhd-qled-smart-tv-09232287</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229810/68590a1f123ba.PDF</t>
+          <t>https://www.technomarket.bg/televizor/sony-kd-55x75wlpaep-uhd-led-smart-tv-android-09214013</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/tcl-98c655-qled-smart-google-tv-09222165</t>
+          <t>https://www.technomarket.bg/televizori-60-65/hisense-65u8q-mini-led-qled-ai-smart-tv-09236252</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222165/666ca8d8739a6.pdf</t>
+          <t>https://www.technomarket.bg/televizor/hisense-55u8q-mini-led-qled-ai-smart-tv-09231740</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-55qned87a3b-qned-evo-ai-smart-tv-09229541</t>
+          <t>https://www.technomarket.bg/televizori-75-83/lg-75qned82a3b-qned-ai-smart-tv-09230633</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229541/682dd426c035f.pdf</t>
+          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75ls03f-the-frame-pro-qled-smart-tv-09229136</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/lg-oled77g51lw-oled-evo-ai-smart-tv-09229581</t>
+          <t>https://www.technomarket.bg/televizor/lg-oled48b53la-oled-ai-smart-tv-09229690</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229581/684680b538434.pdf</t>
+          <t>https://www.technomarket.bg/televizori-75-83/philips-75pus9010-uhd-qled-smart-tv-09232288</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/lg-oled65g51lw-oled-evo-ai-smart-tv-09229693</t>
+          <t>https://www.technomarket.bg/televizor/sony-xr-48a90k-oled-smart-tv-android-09207906</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229693/683029a9ae258.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/hisense-65u7q-pro-mini-led-qled-ai-smart-09229819</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/kivi-32f720qb-fhd-qled-google-tv-09225961</t>
+          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65qn90f-neo-qled-smart-tv-09229153</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09225961/67d927ee10689.pdf</t>
+          <t>https://www.technomarket.bg/televizor/hisense-55a85q-oled-uhd-smart-tv-09229817</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-43qned82a3b-qned-ai-smart-tv-09231748</t>
+          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75qn70f-neo-qled-smart-tv-09229168</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09231748/68779fbf37e8f.pdf</t>
+          <t>https://www.technomarket.bg/televizor/philips-50pus9010-uhd-qled-smart-tv-09232278</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-55qn95d-neo-qled-smart-tv-09221495</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/samsung-qe-98qn90f-neo-qled-smart-tv-09231932</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221495/66178d9a11225.pdf</t>
+          <t>https://www.technomarket.bg/televizori-75-83/hisense-75u7q-mini-led-qled-ai-smart-tv-09231724</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/tcl-75c6ks-qd-mini-led-qled-smart-google-tv-09235379</t>
+          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75q8f-qled-smart-tv-09229148</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09235379/68c3d81e88cc5.pdf</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-55qn80f-neo-qled-smart-tv-09229162</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-77s85f-oled-smart-tv-09229176</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-55qn90f-neo-qled-smart-tv-09229152</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229176/6811d31c5692b.pdf</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-43qn90f-neo-qled-smart-tv-09229150</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-50qn90f-neo-qled-smart-tv-09229151</t>
+          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-83s90f-oled-smart-tv-09229160</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229151/682d74a2cb829.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65s95f-oled-smart-tv-09229179</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/hisense-43a6q-uhd-smart-tv-09229812</t>
+          <t>https://www.technomarket.bg/televizor/lg-oled55g51lw-oled-evo-ai-smart-tv-09231744</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229812/686b8fb69ea29.PDF</t>
+          <t>https://www.technomarket.bg/televizori-75-83/sony-bravia-5-k-75xr55-mini-led-smart-tv-09231057</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/sony-bravia-5-k-55xr55b-mini-led-smart-tv-09229625</t>
+          <t>https://www.technomarket.bg/televizor/sony-bravia-5-k-55xr59b-mini-led-smart-tv-09229638</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229625/6836b46510d06.pdf</t>
+          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-77s95f-oled-smart-tv-09229180</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/hisense-43a6n-uhd-smart-tv-09223470</t>
+          <t>https://www.technomarket.bg/televizor/samsung-ue-27f6002f-fhd-smart-tv-09237150</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09223470/669f9c20b6262.PDF</t>
+          <t>https://www.technomarket.bg/televizori-60-65/sony-bravia-5-k-65xr55b-mini-led-smart-tv-09230641</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/samsung-ue-75u8072f-uhd-smart-tv-09229130</t>
+          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65qn80f-neo-qled-smart-tv-09229163</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229130/682d7e71d3961.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/sony-bravia-5-k-65xr59b-mini-led-smart-tv-09229626</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/sony-bravia-3-k-50s35b-uhd-led-smart-tv-09229415</t>
+          <t>https://www.technomarket.bg/televizor/sony-k-55xr8m25bp-oled-smart-tv-09230643</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229415/681c58101b0f9.pdf</t>
+          <t>https://www.technomarket.bg/televizori-75-83/sony-bravia-3-k-75s35b-uhd-led-smart-tv-09230642</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65s85f-oled-smart-tv-09229175</t>
+          <t>https://www.technomarket.bg/televizor/sony-kd-43x75wlpaep-uhd-led-smart-tv-android-09214518</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229175/6811d27fbe996.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/sony-bravia-3-k-65s35b-uhd-led-smart-tv-09229624</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/lg-86qned85a3c-qned-smart-tv-09231743</t>
+          <t>https://www.technomarket.bg/televizor/philips-50pus8010-uhd-led-smart-tv-09232277</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09231743/6890c1190bf1b.pdf</t>
+          <t>https://www.technomarket.bg/televizori-75-83/sony-kd-75x85laep-uhd-led-smart-tv-android-09214529</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/tcl-65p6k-uhd-led-smart-google-tv-09231911</t>
+          <t>https://www.technomarket.bg/televizor/neo-led-24b12vm-hd-led-tv-09227152</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09231911/6894666f3cef6.pdf</t>
+          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-77s90f-oled-smart-tv-09229159</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-55qn90d-neo-qled-smart-tv-09221500</t>
+          <t>https://www.technomarket.bg/televizori-75-83/lg-oled83c51la-oled-evo-ai-smart-tv-09229534</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221500/6617a6cf44773.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/hisense-65a6q-uhd-smart-tv-09229823</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/sony-xr-65a95laep-oled-smart-tv-android-09216817</t>
+          <t>https://www.technomarket.bg/televizor/lg-50nano81t3a-uhd-led-smart-tv-09222561</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09216817/6512b8e5a3531.pdf</t>
+          <t>https://www.technomarket.bg/televizor/samsung-ue-24f6002f-fhd-smart-tv-09237149</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/tcl-43s5400a-fhd-led-smart-tv-android-09222149</t>
+          <t>https://www.technomarket.bg/televizor/lg-55ua74003lb-uhd-led-ai-smart-tv-09236664</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222149/66701ad71158d.pdf</t>
+          <t>https://www.technomarket.bg/televizor/hisense-55u7q-pro-mini-led-qled-ai-smart-09229816</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/philips-32pfs6908-fhd-led-smart-tv-09214322</t>
+          <t>https://www.technomarket.bg/televizori-75-83/hisense-75e7q-uhd-qled-smart-tv-09231722</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09214322/6491602b0b356.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/sony-bravia-3-k-65s39b-uhd-led-smart-tv-09229622</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-55q80d-qled-smart-tv-09221235</t>
+          <t>https://www.technomarket.bg/televizor/sony-bravia-3-k-55s35b-uhd-led-smart-tv-09229623</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221235/660432831c4d6.pdf</t>
+          <t>https://www.technomarket.bg/televizor/lg-50qned70a6a-qned-smart-tv-09237056</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/philips-65pus7608-uhd-led-smart-tv-09214337</t>
+          <t>https://www.technomarket.bg/televizor/lg-55qned70a6a-qned-smart-tv-09237057</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09214337/64919ae688d2f.pdf</t>
+          <t>https://www.technomarket.bg/televizor/sony-kd-50x75wlpaep-uhd-led-smart-tv-android-09214418</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75q70d-qled-smart-tv-09221234</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-55s95f-oled-smart-tv-09229178</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221234/66042f62dcc7f.pdf</t>
+          <t>https://www.technomarket.bg/televizor/lg-50ua74003lb-uhd-led-ai-smart-tv-09236663</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/tcl-43v6b-uhd-led-smart-google-tv-09222150</t>
+          <t>https://www.technomarket.bg/televizor/hisense-55e7nq-uhd-qled-smart-tv-09223803</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222150/66701e987098b.pdf</t>
+          <t>https://www.technomarket.bg/televizor/tcl-50c805-qled-smart-google-tv-09217476</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65ls03d-the-frame-qled-smart-tv-09221577</t>
+          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-77s95c-oled-smart-tv-09212768</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221577/661e6458ef6fc.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65qn95d-neo-qled-smart-tv-09221494</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-55s95d-oled-smart-tv-09221491</t>
+          <t>https://www.technomarket.bg/televizori-75-83/lg-oled77c31la-oled-smart-tv-09216128</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221491/661787a81db73.pdf</t>
+          <t>https://www.technomarket.bg/televizori-75-83/lg-oled83m39la-oled-smart-tv-09220753</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/hisense-85e7nq-uhd-qled-smart-tv-09225159</t>
+          <t>https://www.technomarket.bg/televizori-75-83/sony-kd-75x80laep-uhd-led-smart-tv-android-09221768</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09225159/6716403d9df13.PDF</t>
+          <t>https://www.technomarket.bg/televizor/sony-xr-55a95laep-oled-smart-tv-android-09216816</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/philips-55pus8079-uhd-led-smart-tv-09221899</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/samsung-qe-85qn95d-neo-qled-smart-tv-09221492</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221899/663e31fe3ae4d.JPG</t>
+          <t>https://www.technomarket.bg/televizori-60-65/hisense-65a85q-oled-uhd-smart-tv-09229820</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75q60d-qled-smart-tv-09221231</t>
+          <t>https://www.technomarket.bg/televizori-75-83/lg-oled77c41la-oled-smart-tv-09222071</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221231/6606a8095b34e.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/lg-oled65g43ls-oled-smart-tv-09222560</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-43nano81t3a-uhd-led-smart-tv-09222077</t>
+          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-83s90d-oled-smart-tv-09222970</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222077/6660620c78d0f.pdf</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/tcl-115x955-max-mini-led-qled-smart-google-tv-09222174</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/tcl-50hg60e-uhd-led-smart-android-tv-09227349</t>
+          <t>https://www.technomarket.bg/televizor/tcl-55c655-qled-smart-google-tv-09222161</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09227349/67b5bcce06511.pdf</t>
+          <t>https://www.technomarket.bg/televizor/hisense-55e7nq-pro-uhd-qled-smart-tv-09223472</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65q70d-qled-smart-tv-09221233</t>
+          <t>https://www.technomarket.bg/televizor/philips-50pus7609-12-uhd-led-smart-tv-09225838</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221233/66042e91d0859.pdf</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/lg-98qned89t6a-qned-smart-tv-09224734</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/philips-43pus8009-12-uhd-led-smart-tv-09225836</t>
+          <t>https://www.technomarket.bg/televizor/sony-xr-50x90saep-uhd-led-smart-tv-android-09207144</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09225836/673c3845a353a.pdf</t>
+          <t>https://www.technomarket.bg/televizori-75-83/lg-oled77b43la-oled-smart-tv-09225086</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/sony-xr-65x90laep-uhd-led-smart-tv-android-09221531</t>
+          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75q70c-qled-smart-tv-09212896</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221531/661638a448706.pdf</t>
+          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75qn95c-neo-qled-smart-tv-09212761</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-oled55g43ls-oled-smart-tv-09222069</t>
+          <t>https://www.technomarket.bg/televizor/sony-kd-55x80laep-uhd-led-smart-tv-android-09221529</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222069/66609d319d66a.pdf</t>
+          <t>https://www.technomarket.bg/televizor/philips-55oled770-uhd-oled-smart-tv-09232279</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/hisense-65e7nq-pro-uhd-qled-smart-tv-09223473</t>
+          <t>https://www.technomarket.bg/televizori-60-65/sony-k-65xr8m25-oled-smart-tv-09230644</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09223473/669f9dc0d8a38.PDF</t>
+          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75qn85c-neo-qled-smart-tv-09212751</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65qn90d-neo-qled-smart-tv-09221499</t>
+          <t>https://www.technomarket.bg/televizori-60-65/tcl-65c855-mini-led-qled-smart-google-tv-09222168</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221499/661689079445c.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65qn90c-neo-qled-smart-tv-09212756</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/tcl-75p7k-qled-smart-google-tv-09222172</t>
+          <t>https://www.technomarket.bg/televizor/lg-55qned85a3c-qned-smart-tv-09230634</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222172/682d8a4a6517e.pdf</t>
+          <t>https://www.technomarket.bg/televizor/sony-kd-55x85l-uhd-led-smart-tv-android-09214519</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/lg-65qned85t3c-qned-smart-tv-09224732</t>
+          <t>https://www.technomarket.bg/televizor/lg-50qned80a3a-qned-smart-tv-09229211</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09224732/66ed7ee7305ab.pdf</t>
+          <t>https://www.technomarket.bg/televizor/tcl-43p6k-uhd-led-smart-google-tv-09231910</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/philips-65pus8079-uhd-led-smart-tv-09221900</t>
+          <t>https://www.technomarket.bg/televizori-60-65/philips-65oled770-uhd-oled-smart-tv-09232284</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221900/663e323e6bb0b.pdf</t>
+          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75qn95d-neo-qled-smart-tv-09221493</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/hisense-43e7nq-uhd-qled-smart-tv-09223802</t>
+          <t>https://www.technomarket.bg/televizori-60-65/lg-65ut80003la-uhd-led-smart-tv-09222558</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09223802/66b9ea7dcc717.PDF</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/samsung-qe-85q80d-qled-smart-tv-09221764</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/philips-32phs6009-hd-led-smart-tv-09221676</t>
+          <t>https://www.technomarket.bg/televizor/tcl-55c745-qled-smart-google-tv-09218218</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221676/662769be31bc2.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/sony-xr-65a80laep-oled-smart-tv-android-09213301</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/sony-xr-65a75kaep-oled-smart-tv-android-09208447</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/hisense-100e7nq-pro-uhd-qled-smart-tv-09223475</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09208447/62d9309d85a8b.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/hisense-65u6kq-mini-led-qled-smart-tv-09219278</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/samsung-ue-65du8072-uhd-smart-tv-09221582</t>
+          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65qn85d-neo-qled-smart-tv-09221508</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221582/661e6c98611dc.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/sony-kd-65x80laep-uhd-led-smart-tv-android-09221530</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75qn85d-neo-qled-smart-tv-09221507</t>
+          <t>https://www.technomarket.bg/televizor/sony-kd-43x80lpaep-uhd-led-smart-tv-android-09221527</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221507/661675d1ea0b9.pdf</t>
+          <t>https://www.technomarket.bg/televizor/lg-55nano80a3b-nanocell-ai-smart-tv-09228879</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/hisense-55u6kq-mini-led-qled-smart-tv-09219277</t>
+          <t>https://www.technomarket.bg/televizori-75-83/lg-75ut91003la-uhd-led-smart-tv-09225947</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09219277/65689f959e220.PDF</t>
+          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65qn800d-8k-neo-qled-smart-tv-09221511</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-43qned70a6a-qned-smart-tv-09236665</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-55q70d-qled-smart-tv-09221232</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09236665/68df80f2650f6.pdf</t>
+          <t>https://www.technomarket.bg/televizori-75-83/hisense-75a6k-uhd-smart-tv-09218402</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/samsung-ue-75du8572-uhd-smart-tv-09222143</t>
+          <t>https://www.technomarket.bg/televizori-75-83/sony-xr-75x90laep-uhd-led-smart-tv-android-09222228</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222143/664da99258342.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/tcl-65c655-pro-qled-smart-google-tv-09222167</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-ue-55du8072-uhd-smart-tv-09221581</t>
+          <t>https://www.technomarket.bg/televizor/lg-43ua74003lb-uhd-led-ai-smart-tv-09237054</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221581/661e6be31af65.pdf</t>
+          <t>https://www.technomarket.bg/televizor/hisense-32a4q-hd-smart-tv-09231715</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/samsung-ue-65du8572-uhd-smart-tv-09222298</t>
+          <t>https://www.technomarket.bg/televizor/hisense-55e7q-uhd-qled-smart-tv-09231717</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222298/666849fd18da4.pdf</t>
+          <t>https://www.technomarket.bg/televizor/tcl-55p6k-uhd-led-smart-google-tv-09222151</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/tcl-55c805-qled-smart-google-tv-09217477</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-55s85f-oled-smart-tv-09229174</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09217477/651aeeec2961e.pdf</t>
+          <t>https://www.technomarket.bg/televizor/kivi-24h760qb-hd-smart-android-tv-09235538</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/sony-kd-65x85l-uhd-led-smart-tv-android-09214085</t>
+          <t>https://www.technomarket.bg/televizori-75-83/tcl-75p6k-uhd-led-smart-google-tv-09230855</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09214085/6479a9faec952.pdf</t>
+          <t>https://www.technomarket.bg/televizor/kivi-55u760qw-uhd-smart-android-tv-white-09225962</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/hisense-50u7q-mini-led-qled-ai-smart-tv-09230625</t>
+          <t>https://www.technomarket.bg/televizori-60-65/sony-bravia-8-k-65xr80p-oled-smart-tv-android-09222968</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09230625/6890becb28a24.PDF</t>
+          <t>https://www.technomarket.bg/televizor/tcl-50p6k-uhd-led-smart-google-tv-09230854</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/philips-43pus8010-uhd-led-smart-tv-09232274</t>
+          <t>https://www.technomarket.bg/televizori-75-83/hisense-75u7q-pro-mini-led-qled-ai-smart-09229821</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09232274/68a55af08934a.pdf</t>
+          <t>https://www.technomarket.bg/televizor/hisense-55u7q-mini-led-qled-ai-smart-tv-09229815</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/tcl-50p7k-qled-smart-google-tv-09229319</t>
+          <t>https://www.technomarket.bg/televizori-75-83/hisense-75a6q-uhd-smart-tv-09231721</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229319/682d87bb4c7b2.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/hisense-65e7q-pro-uhd-qled-smart-tv-09231720</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-24tq510s-wz-smart-hd-tv-monitor-09228936</t>
+          <t>https://www.technomarket.bg/televizori-75-83/lg-75qned80t3a-qned-uhd-smart-tv-09225088</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09228936/680f85213030e.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/tcl-65p8k-qled-smart-google-tv-09229315</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/sony-bravia-3-k-43s35-uhd-led-smart-tv-09229414</t>
+          <t>https://www.technomarket.bg/televizori-75-83/tcl-75c645-qled-smart-google-tv-09214618</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229414/681c5787c97a3.pdf</t>
+          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75qn700c-8k-neo-qled-smart-tv-09212748</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/kivi-kids-tv-32-fhd-android-tv-09219279</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/samsung-qe-85ls03d-the-frame-qled-smart-tv-09221579</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09219279/6568bab50c3f1.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65qn95c-neo-qled-smart-tv-09212760</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/tcl-85p7k-qled-smart-google-tv-09222170</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-48s90d-oled-smart-tv-09222986</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222170/682d8c195b67f.pdf</t>
+          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75qn900d-8k-neo-qled-smart-tv-09221504</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/tcl-75c7k-qd-mini-led-qled-smart-google-tv-09229728</t>
+          <t>https://www.technomarket.bg/televizori-60-65/lg-65qned80t3a-qned-uhd-smart-tv-09225090</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229728/684be901b84c9.JPG</t>
+          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65q60d-qled-smart-tv-09221230</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/hisense-43e7q-uhd-qled-smart-tv-09231716</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-55qn95c-neo-qled-smart-tv-09212759</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09231716/6877483ba7669.PDF</t>
+          <t>https://www.technomarket.bg/televizori-60-65/philips-65oled820-uhd-oled-smart-tv-09232285</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/lg-75nano81t3a-uhd-led-smart-tv-09222080</t>
+          <t>https://www.technomarket.bg/televizor/samsung-qe-43ls01d-the-serif-qled-smart-tv-09225912</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222080/665e12ea6892b.pdf</t>
+          <t>https://www.technomarket.bg/televizori-75-83/lg-oled83g33la-oled-smart-tv-09220749</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/lg-oled77m49la-oled-smart-tv-09225161</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/samsung-qe-85qn85d-neo-qled-smart-tv-09221506</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09225161/67164440e0712.pdf</t>
+          <t>https://www.technomarket.bg/televizori-nad-85/hisense-85e7nq-pro-uhd-qled-smart-tv-09223806</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/lg-oled97g42lw-oled-smart-tv-09224735</t>
+          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75ls03d-the-frame-qled-smart-tv-09221578</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09224735/67163e18a13b2.pdf</t>
+          <t>https://www.technomarket.bg/televizori-60-65/hisense-65e7q-uhd-qled-smart-tv-09231719</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/sony-bravia-9-k-85xr90paep-mini-led-smart-tv-android-09225115</t>
+          <t>https://www.technomarket.bg/televizor/kivi-43u760qw-uhd-smart-android-tv-white-09224881</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09225115/671103d66ba4a.pdf</t>
+          <t>https://www.technomarket.bg/kino/samsung-hw-q990d-en-soundbar-09221817</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/hisense-110uxnq-mini-led-qled-smart-tv-09225157</t>
+          <t>https://www.technomarket.bg/kino/sony-ht-s20r-5-1ch-soundbar-system-09181418</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09225157/67163f8d05b80.PDF</t>
+          <t>https://www.technomarket.bg/kino/samsung-hw-c450-en-soundbar-09216909</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/samsung-qe-98qn990f-8k-neo-qled-smart-tv-09236376</t>
+          <t>https://www.technomarket.bg/kino/samsung-hw-s700d-en-soundbar-09222365</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09236376/68c17e1896c88.pdf</t>
+          <t>https://www.technomarket.bg/kino/samsung-hw-b550-en-soundbar-09208510</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/hisense-85u7q-mini-led-qled-ai-smart-tv-09231728</t>
+          <t>https://www.technomarket.bg/kino/samsung-hw-q800d-en-soundbar-09222364</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09231728/6877529d44d6e.PDF</t>
+          <t>https://www.technomarket.bg/kino/sony-ht-b600-3-1-2ch-soundbar-09228870</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75qn90d-neo-qled-smart-tv-09221498</t>
+          <t>https://www.technomarket.bg/kino/tcl-p733we-3-1-soundbar-09221464</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221498/66168871868f8.pdf</t>
+          <t>https://www.technomarket.bg/kino/sony-bravia-theatre-system-6-ht-s60-soundbar-09228871</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/lg-oled77m39la-oled-smart-tv-09220752</t>
+          <t>https://www.technomarket.bg/kino/samsung-hw-q600c-en-soundbar-09217938</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09220752/65f1597d621d4.pdf</t>
+          <t>https://www.technomarket.bg/kino/samsung-hw-ls60d-en-music-frame-soundbar-09221657</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/sony-bravia-7-k-85xr70paep-mini-led-smart-tv-android-09225113</t>
+          <t>https://www.technomarket.bg/kino/lg-s70tr-5-1-1-soundbar-09225072</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09225113/6710f3e07bcad.pdf</t>
+          <t>https://www.technomarket.bg/kino/lg-s60tr-5-1-soundbar-09225071</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/sony-bravia-7-k-65xr70paep-mini-led-smart-tv-android-09225111</t>
+          <t>https://www.technomarket.bg/kino/sony-bravia-theatre-bar-9-ht-a9000-soundbar-09222969</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09225111/6710f305cb8c5.pdf</t>
+          <t>https://www.technomarket.bg/kino/sony-ht-s40r-soundbar-09189502</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75qn990f-8k-neo-qled-smart-tv-09231670</t>
+          <t>https://www.technomarket.bg/kino/lg-s40t-2-1-soundbar-09225070</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09231670/68c17a0669f26.pdf</t>
+          <t>https://www.technomarket.bg/kino/lg-s60q-2-1-soundbar-09221653</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/hisense-55s7nq-canvas-frame-qled-tv-09227350</t>
+          <t>https://www.technomarket.bg/kino/lg-s75q-3-1-2-soundbar-09211332</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09227350/67b5c0ee638f7.PDF</t>
+          <t>https://www.technomarket.bg/kino/loewe-klang-bar5-mr-soundbar-basalt-grey-09208438</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65qn990f-8k-neo-qled-smart-tv-09236374</t>
+          <t>https://www.technomarket.bg/kino/samsung-hw-q950a-en-soundbar-09189403</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09236374/68c17acf184f1.pdf</t>
+          <t>https://www.technomarket.bg/kino/tcl-q85he-7-1-4-soundbar-09229403</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/samsung-qe-98q80c-qled-smart-tv-09214589</t>
+          <t>https://www.technomarket.bg/kino/samsung-hw-t530-en-soundbar-09181559</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09214589/64a557c0d01ac.pdf</t>
+          <t>https://www.technomarket.bg/kino/samsung-hw-ms550-en-soundbar-09157542</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/tcl-75v6c-uhd-led-smart-google-tv-09222171</t>
+          <t>https://www.technomarket.bg/kino/samsung-hw-q800t-en-soundbar-09181623</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222171/682d93253dc41.pdf</t>
+          <t>https://www.technomarket.bg/kino/samsung-hw-q600b-en-soundbar-09207428</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/sony-xr-83a80lpaep-oled-smart-tv-android-09222286</t>
+          <t>https://www.technomarket.bg/kino/tcl-c935u-5-1-2-soundbar-09212403</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222286/666325ba775d0.pdf</t>
+          <t>https://www.technomarket.bg/kino/sonos-sub-black-09211324</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/hisense-85e7q-uhd-qled-smart-tv-09231726</t>
+          <t>https://www.technomarket.bg/kino/tcl-s55he-2-1-soundbar-09229401</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09231726/687751c427338.PDF</t>
+          <t>https://www.technomarket.bg/kino/sonos-ray-black-soundbar-09211318</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-50ls03f-the-frame-qled-smart-tv-09229133</t>
+          <t>https://www.technomarket.bg/kino/sonos-beam-black-soundbar-09211320</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229133/6810c5c4316f3.pdf</t>
+          <t>https://www.technomarket.bg/kino/sonos-beam-white-soundbar-09211319</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/lg-86qned82a3b-qned-ai-smart-tv-09231749</t>
+          <t>https://www.technomarket.bg/kino/sonos-sub-white-09211323</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09231749/6877a01133564.pdf</t>
+          <t>https://www.technomarket.bg/kino/hisense-u5120gw-5-1-2-soundbar-09225134</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/tcl-85p8k-qled-smart-google-tv-09230857</t>
+          <t>https://www.technomarket.bg/kino/lg-s40tr-4-1-soundbar-09229774</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09230857/685d481f33b59.pdf</t>
+          <t>https://www.technomarket.bg/kino/sony-ht-a5000-5-1-2ch-soundbar-09209909</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/tcl-75c8k-qd-mini-led-qled-smart-google-tv-09230856</t>
+          <t>https://www.technomarket.bg/kino/samsung-hw-q700c-en-soundbar-09218167</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09230856/685d30ebb00bd.pdf</t>
+          <t>https://www.technomarket.bg/kino/philips-tapb405-soundbar-09201021</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/tcl-65c8k-qd-mini-led-qled-smart-google-tv-09235378</t>
+          <t>https://www.technomarket.bg/kino/sony-ht-a3000-3-1ch-soundbar-09209680</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09235378/68c3d71c24ddc.pdf</t>
+          <t>https://www.technomarket.bg/kino/sonos-sub-mini-white-09212825</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/hisense-85a6q-uhd-smart-tv-09231725</t>
+          <t>https://www.technomarket.bg/kino/sonos-sub-mini-black-09211325</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09231725/687751576698c.jpg</t>
+          <t>https://www.technomarket.bg/kino/sonos-arc-black-soundbar-09211322</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/samsung-ue-98du9072-uhd-smart-tv-09222987</t>
+          <t>https://www.technomarket.bg/kino/tcl-ts8212-2-1-2-soundbar-09203680</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222987/667565502e155.pdf</t>
+          <t>https://www.technomarket.bg/kino/sonos-arc-white-soundbar-09211321</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75q80c-qled-smart-tv-09212957</t>
+          <t>https://www.technomarket.bg/kino/sonos-arc-ultra-soundbar-wi-fi-black-09231856</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09212957/6421850d0f692.pdf</t>
+          <t>https://www.technomarket.bg/kino/philips-tab6309-10-2-1-soundbar-09223272</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/hisense-65u8nq-mini-led-qled-smart-tv-09226557</t>
+          <t>https://www.technomarket.bg/kino/tcl-q75he-5-1-2-soundbar-09229402</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09226557/678a69e02d096.pdf</t>
+          <t>https://www.technomarket.bg/kino/jbl-bar-1000-soundbar-09223494</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65ls03f-the-frame-pro-qled-smart-tv-09229135</t>
+          <t>https://www.technomarket.bg/kino/lg-sc9s-3-1-3-soundbar-09213466</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229135/6810c6c2e4098.pdf</t>
+          <t>https://www.technomarket.bg/kino/samsung-hw-q930c-en-soundbar-09215456</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/samsung-qe-85qn990f-8k-neo-qled-smart-tv-09236375</t>
+          <t>https://www.technomarket.bg/kino/sony-ht-s2000-3-1ch-soundbar-09214509</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09236375/68c17bbcdb389.pdf</t>
+          <t>https://www.technomarket.bg/kino/samsung-hw-s800d-en-soundbar-09222989</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/hisense-85u7q-pro-mini-led-qled-ai-smart-09229822</t>
+          <t>https://www.technomarket.bg/kino/sonos-arc-ultra-soundbar-wi-fi-white-09231858</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229822/6890bd71a6a1b.PDF</t>
+          <t>https://www.technomarket.bg/kino/sonos-ray-white-soundbar-09211317</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/lg-65qned87a3b-qned-evo-ai-smart-tv-09229536</t>
+          <t>https://www.technomarket.bg/kino/lg-s80tr-soundbar-09231832</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229536/682dd26632d3e.pdf</t>
+          <t>https://www.technomarket.bg/kino/lg-sh5a-soundbar-09234967</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/samsung-qe-100qn80f-neo-qled-smart-tv-09231931</t>
+          <t>https://www.technomarket.bg/kino/samsung-hw-qs700f-en-soundbar-09235638</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09231931/68a588351d672.pdf</t>
+          <t>https://www.technomarket.bg/kino/samsung-hw-q990f-en-soundbar-09230639</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/hisense-116uxq-rgb-mini-led-uled-ai-smart-tv-09236151</t>
+          <t>https://www.technomarket.bg/kino/jbl-bar-1300-soundbar-09214215</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09236151/68c189af3f1fd.PDF</t>
+          <t>https://www.technomarket.bg/kino/samsung-hw-s800b-en-soundbar-09212769</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/hisense-75e7q-pro-uhd-qled-smart-tv-09231723</t>
+          <t>https://www.technomarket.bg/kino/jbl-bar-800mk2-soundbar-09236582</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09231723/68774e410c145.PDF</t>
+          <t>https://www.technomarket.bg/kino/sony-ht-s400-2-1ch-soundbar-09206205</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-43ls03d-the-frame-qled-smart-tv-09221574</t>
+          <t>https://www.technomarket.bg/kino/jbl-bar-2-1-deep-bass-mk2-soundbar-09213325</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221574/661e5d1b8b748.pdf</t>
+          <t>https://www.technomarket.bg/kino/samsung-hw-s701d-en-soundbar-09225933</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/samsung-qe-85q8f-qled-smart-tv-09229149</t>
+          <t>https://www.technomarket.bg/kino/sony-bravia-theatre-bar-8-ht-a8000-soundbar-09223190</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229149/6810d4629bee5.pdf</t>
+          <t>https://www.technomarket.bg/kino/hisense-ax5140q-5-1-4-soundbar-09228707</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-83s85f-oled-smart-tv-09229177</t>
+          <t>https://www.technomarket.bg/kino/hisense-ax3120q-3-1-2-soundbar-09228708</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229177/6811d3c00b8e8.pdf</t>
+          <t>https://www.technomarket.bg/kino/jbl-bar-500-soundbar-09213320</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/sony-kd-75x75wlpaep-uhd-led-smart-tv-android-09214086</t>
+          <t>https://www.technomarket.bg/kino/samsung-hw-q930f-en-soundbar-09230640</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09214086/6479acaf76bab.pdf</t>
+          <t>https://www.technomarket.bg/kino/samsung-hw-q700d-en-soundbar-09221479</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/samsung-qe-115qn90f-neo-qled-smart-tv-09231933</t>
+          <t>https://www.technomarket.bg/kino/sony-ht-sf150-2-channel-soundbar-09165388</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09231933/68a5890804050.pdf</t>
+          <t>https://www.technomarket.bg/kino/samsung-hw-q930d-en-soundbar-09221480</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-55ls03f-the-frame-qled-smart-tv-09229134</t>
+          <t>https://www.technomarket.bg/kino/lg-sg10ty-3-1-soundbar-09225014</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229134/6810c6375cb49.pdf</t>
+          <t>https://www.technomarket.bg/kino/samsung-hw-q60c-en-soundbar-09214342</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-43ls03f-the-frame-qled-smart-tv-09229132</t>
+          <t>https://www.technomarket.bg/kino/lg-s80qr-5-1-3-soundbar-09210779</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229132/6810c531968f8.pdf</t>
+          <t>https://www.technomarket.bg/kino/lg-s20a-soundbar-09231831</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/neo-55qled22-smart-qled-tv-09209102</t>
+          <t>https://www.technomarket.bg/kino/philips-tab5309-10-2-1-soundbar-09223271</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09209102/6312061ca91e3.pdf</t>
+          <t>https://www.technomarket.bg/dvd-playeri/xmart-d238h-dvd-player-09191043</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/neo-led-50us25m-uhd-smart-led-tv-09227155</t>
+          <t>https://www.technomarket.bg/dvd-playeri/sony-dvp-sr760hb-09120054</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09227155/67b4794002c3e.pdf</t>
+          <t>https://www.technomarket.bg/dvd-playeri/aiwa-gbtur-120wd-gramophone-wood-09187713</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/sony-bravia-5-k-98xr55-mini-led-smart-tv-09231845</t>
+          <t>https://www.technomarket.bg/dvd-playeri/aiwa-apx-790bt-gramophone-black-09212114</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09231845/688776c481bc5.pdf</t>
+          <t>https://www.technomarket.bg/dvd-playeri/jbl-spinner-bt-gramophone-gold-09221769</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/philips-48oled820-uhd-oled-smart-tv-09232276</t>
+          <t>https://www.technomarket.bg/dvd-playeri/jbl-spinner-bt-gramophone-black-09236584</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09232276/68a55b7704a0f.pdf</t>
+          <t>https://www.technomarket.bg/dvd-playeri/aiwa-gbtur-120bk-gramophone-black-09200907</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/philips-48oled770-uhd-oled-smart-tv-09232275</t>
+          <t>https://www.technomarket.bg/dvd-playeri/sony-bdp-s6700b-09149998</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09232275/68a55b41b21c6.pdf</t>
+          <t>https://www.technomarket.bg/mini-sistemi/jbl-partybox-stage-320-09223169</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/lg-65qned80a3a-qned-smart-tv-09230631</t>
+          <t>https://www.technomarket.bg/mini-sistemi/panasonic-sc-max3500ek-hi-fi-system-09177066</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09230631/68555ce431fea.pdf</t>
+          <t>https://www.technomarket.bg/mini-sistemi/aiwa-kbtus-608-party-system-09210766</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-50nano80a3b-nanocell-ai-smart-tv-09228878</t>
+          <t>https://www.technomarket.bg/mini-sistemi/diva-bluetooth-karaoke-mixer-bt-01-09175382</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09228878/680f842e2db82.pdf</t>
+          <t>https://www.technomarket.bg/mini-sistemi/lg-xboom360-rp4be-audio-system-09205827</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/sony-xr-55a80laep-oled-smart-tv-android-09213300</t>
+          <t>https://www.technomarket.bg/mini-sistemi/sony-mhc-v13d-audio-system-09187924</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09213300/64353f830d0bd.pdf</t>
+          <t>https://www.technomarket.bg/mini-sistemi/panasonic-sc-pm270eg-s-audio-system-09226325</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/sony-bravia-3-k-85s35bp-uhd-led-smart-tv-09231055</t>
+          <t>https://www.technomarket.bg/mini-sistemi/aiwa-kbtus-250-party-system-09226119</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09231055/6870aa6f42ad0.pdf</t>
+          <t>https://www.technomarket.bg/mini-sistemi/panasonic-sc-tmax40e-k-audio-system-09189513</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/philips-75pus9010-uhd-qled-smart-tv-09232288</t>
+          <t>https://www.technomarket.bg/mini-sistemi/jbl-partybox-ultimate-audio-system-09220552</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09232288/68a5605de7bd0.pdf</t>
+          <t>https://www.technomarket.bg/mini-sistemi/sony-mhc-v73d-audio-system-w-bluetooth-09184348</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/hisense-65u8q-mini-led-qled-ai-smart-tv-09236252</t>
+          <t>https://www.technomarket.bg/mini-sistemi/sony-srs-xv500b-audio-system-09221125</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09236252/68c189558684a.PDF</t>
+          <t>https://www.technomarket.bg/mini-sistemi/aiwa-kbtus-450-party-system-09221488</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65qn90f-neo-qled-smart-tv-09229153</t>
+          <t>https://www.technomarket.bg/mini-sistemi/xmart-bs60-x-bass-party-speaker-09221327</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229153/682d753ebffc5.pdf</t>
+          <t>https://www.technomarket.bg/mini-sistemi/jbl-partybox-520-audio-system-09231071</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/hisense-55u8q-mini-led-qled-ai-smart-tv-09231740</t>
+          <t>https://www.technomarket.bg/mini-sistemi/jbl-partybox-710-audio-system-09228588</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09231740/687755c7379e2.PDF</t>
+          <t>https://www.technomarket.bg/mini-sistemi/panasonic-sc-akx710e-k-audio-system-black-09185409</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/hisense-55a85q-oled-uhd-smart-tv-09229817</t>
+          <t>https://www.technomarket.bg/mini-sistemi/sony-srs-ult900ac-ult-tower-9ac-audio-system-09228869</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229817/68c184af53b0a.PDF</t>
+          <t>https://www.technomarket.bg/mini-sistemi/diva-entertainment-system-mbp20kn-09176878</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/hisense-65u7q-pro-mini-led-qled-ai-smart-09229819</t>
+          <t>https://www.technomarket.bg/mini-sistemi/panasonic-sc-tmax45e-k-audio-system-09222305</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229819/686e53e10b390.pdf</t>
+          <t>https://www.technomarket.bg/mini-sistemi/loewe-klang-mr1-audio-system-basalt-grey-09208430</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75qn70f-neo-qled-smart-tv-09229168</t>
+          <t>https://www.technomarket.bg/mini-sistemi/loewe-klang-s3-audio-system-basalt-grey-09208435</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229168/6811ced722ed6.pdf</t>
+          <t>https://www.technomarket.bg/mini-sistemi/lg-xboom360-rp4g-audio-system-09205828</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/philips-50pus9010-uhd-qled-smart-tv-09232278</t>
+          <t>https://www.technomarket.bg/mini-sistemi/sonos-five-white-09218256</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09232278/68a55bde189fe.pdf</t>
+          <t>https://www.technomarket.bg/mini-sistemi/aiwa-kbtus-700-party-system-09185004</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/hisense-75u7q-mini-led-qled-ai-smart-tv-09231724</t>
+          <t>https://www.technomarket.bg/mini-sistemi/xmart-dj-x2-mixer-party-system-09170099</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09231724/68774fdab74bc.PDF</t>
+          <t>https://www.technomarket.bg/mini-sistemi/hisense-party-rocker-one-plus-hp110-09225135</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/samsung-qe-98qn90f-neo-qled-smart-tv-09231932</t>
+          <t>https://www.technomarket.bg/mini-sistemi/sonos-five-black-09218255</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09231932/68a588a676588.pdf</t>
+          <t>https://www.technomarket.bg/mini-sistemi/jbl-partybox-encore-audio-system-09215981</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/sony-kd-55x75wlpaep-uhd-led-smart-tv-android-09214013</t>
+          <t>https://www.technomarket.bg/mini-sistemi/diva-boombox-bs36-audio-system-09153631</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09214013/647072a3cde71.pdf</t>
+          <t>https://www.technomarket.bg/mini-sistemi/philips-tax7207-10-audio-system-09208108</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-oled48b53la-oled-ai-smart-tv-09229690</t>
+          <t>https://www.technomarket.bg/mini-sistemi/philips-tax4207-10-audio-system-09208107</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229690/683028dc30a36.pdf</t>
+          <t>https://www.technomarket.bg/mini-sistemi/diva-entertainment-system-mbp-30k-09154264</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/philips-55oled820-uhd-oled-smart-tv-09232280</t>
+          <t>https://www.technomarket.bg/mini-sistemi/marshall-kilburn-iii-cream-portable-speaker-09235640</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09232280/68a55e206d8ec.pdf</t>
+          <t>https://www.technomarket.bg/mini-sistemi/sonos-era-300-white-09212847</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/tcl-65c7k-qd-mini-led-qled-smart-google-tv-09231912</t>
+          <t>https://www.technomarket.bg/mini-sistemi/diva-boombox-bs40-audio-system-09203604</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09231912/6894682bc9f6b.pdf</t>
+          <t>https://www.technomarket.bg/mini-sistemi/sonos-era-100-white-09212849</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/sony-xr-42a90kaep-oled-smart-tv-android-09208449</t>
+          <t>https://www.technomarket.bg/mini-sistemi/sony-srs-xg500b-audio-system-09189504</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09208449/62d95a6a2946c.pdf</t>
+          <t>https://www.technomarket.bg/mini-sistemi/panasonic-sc-pm700eg-s-audio-system-09216056</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/hisense-100u7kq-mini-led-qled-smart-tv-09221566</t>
+          <t>https://www.technomarket.bg/mini-sistemi/sony-srs-xp500b-audio-system-09189505</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221566/6618e024a924e.PDF</t>
+          <t>https://www.technomarket.bg/mini-sistemi/sony-srs-xp700b-audio-system-09189503</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/philips-77oled820-uhd-oled-smart-tv-09232289</t>
+          <t>https://www.technomarket.bg/mini-sistemi/sonos-era-300-black-09212846</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09232289/68a5609113b29.pdf</t>
+          <t>https://www.technomarket.bg/mini-sistemi/aiwa-kbtus-900-party-system-09185005</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/lg-75qned85a3c-qned-smart-tv-09231742</t>
+          <t>https://www.technomarket.bg/mini-sistemi/aiwa-kbtus-710-party-system-09210767</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09231742/6890c09838955.pdf</t>
+          <t>https://www.technomarket.bg/mini-sistemi/xmart-bs55-x-bass-party-speaker-09229700</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/philips-65pus9010-uhd-qled-smart-tv-09232287</t>
+          <t>https://www.technomarket.bg/mini-sistemi/marshall-middleton-ii-black-brass-portable-speaker-09235642</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09232287/68a5602db10d5.pdf</t>
+          <t>https://www.technomarket.bg/mini-sistemi/samsung-mx-t70-giga-party-system-09182154</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/lg-oled65b53la-oled-ai-smart-tv-09230630</t>
+          <t>https://www.technomarket.bg/mini-sistemi/philips-tam3205m2-micro-music-system-09236640</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09230630/68555c558a0c2.pdf</t>
+          <t>https://www.technomarket.bg/mini-sistemi/xmart-bs50-portable-audio-system-09229286</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/lg-75qned82a3b-qned-ai-smart-tv-09230633</t>
+          <t>https://www.technomarket.bg/mini-sistemi/jbl-partybox-encore-2-audio-system-09229470</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09230633/685568b071085.pdf</t>
+          <t>https://www.technomarket.bg/mini-sistemi/lg-xboom-xl9t-audio-system-09231830</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65s95f-oled-smart-tv-09229179</t>
+          <t>https://www.technomarket.bg/mini-sistemi/marshall-middleton-ii-cream-portable-speaker-09235643</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229179/682d7c202e8de.pdf</t>
+          <t>https://www.technomarket.bg/mini-sistemi/panasonic-sc-bmax5e-k-audio-system-09226559</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75q8f-qled-smart-tv-09229148</t>
+          <t>https://www.technomarket.bg/mini-sistemi/aiwa-kbtus-400-party-system-09185003</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229148/6810d3dbf0d17.pdf</t>
+          <t>https://www.technomarket.bg/mini-sistemi/diva-boombox-bs21-audio-system-mic-09201330</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-55qn80f-neo-qled-smart-tv-09229162</t>
+          <t>https://www.technomarket.bg/mini-sistemi/panasonic-sc-bmax10e-k-audio-system-09226324</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229162/6811c6f978d5e.pdf</t>
+          <t>https://www.technomarket.bg/mini-sistemi/marshall-kilburn-iii-black-brass-portable-speaker-09235641</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-oled55g51lw-oled-evo-ai-smart-tv-09231744</t>
+          <t>https://www.technomarket.bg/mini-sistemi/sony-srs-ult1000-audio-system-09221556</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09231744/6890c1ab83ca1.pdf</t>
+          <t>https://www.technomarket.bg/mini-sistemi/klipsch-austin-black-09236023</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/sony-bravia-3-k-75s35b-uhd-led-smart-tv-09230642</t>
+          <t>https://www.technomarket.bg/mini-sistemi/klipsch-flexus-core-200-soundbar-black-09236024</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09230642/68551aed0fa75.pdf</t>
+          <t>https://www.technomarket.bg/mini-sistemi/klipsch-nashville-black-09236022</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/sony-bravia-5-k-75xr55-mini-led-smart-tv-09231057</t>
+          <t>https://www.technomarket.bg/mini-sistemi/klipsch-flexus-sub-100-black-09236025</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09231057/6870b1b00117c.pdf</t>
+          <t>https://www.technomarket.bg/mini-sistemi/sony-srs-xv800b-audio-system-09213703</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/sony-bravia-5-k-55xr59b-mini-led-smart-tv-09229638</t>
+          <t>https://www.technomarket.bg/mini-sistemi/klipsch-vegas-black-09236027</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229638/6836b4ef46c8a.pdf</t>
+          <t>https://www.technomarket.bg/mini-sistemi/klipsch-miami-black-09236028</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/sony-kd-43x75wlpaep-uhd-led-smart-tv-android-09214518</t>
+          <t>https://www.technomarket.bg/mini-sistemi/klipsch-r-41pm-black-09236029</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09214518/649ad786150be.pdf</t>
+          <t>https://www.technomarket.bg/mini-sistemi/klipsch-the-three-plus-matt-black-09236019</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-55qn90f-neo-qled-smart-tv-09229152</t>
+          <t>https://www.technomarket.bg/mini-sistemi/klipsch-the-one-plus-matt-black-09236020</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229152/682d74f140a64.pdf</t>
+          <t>https://www.technomarket.bg/mini-sistemi/klipsch-detroit-black-09236021</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-43qn90f-neo-qled-smart-tv-09229150</t>
+          <t>https://www.technomarket.bg/mini-sistemi/sony-srs-xv900b-audio-system-09213994</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229150/682d73d54994c.pdf</t>
+          <t>https://www.technomarket.bg/mini-sistemi/sony-mhc-v43d-audio-system-09199685</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-83s90f-oled-smart-tv-09229160</t>
+          <t>https://www.technomarket.bg/mini-sistemi/panasonic-sc-akx520e-k-audio-system-black-09185408</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229160/682d7b3bd8dfc.pdf</t>
+          <t>https://www.technomarket.bg/mini-sistemi/xmart-bs20-x-bass-party-speaker-09229699</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75ls03f-the-frame-pro-qled-smart-tv-09229136</t>
+          <t>https://www.technomarket.bg/mini-sistemi/panasonic-sc-ua30e-k-audio-system-09177068</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229136/6810c7368432c.pdf</t>
+          <t>https://www.technomarket.bg/mini-sistemi/jbl-partybox-club-120-09223168</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/sony-xr-48a90k-oled-smart-tv-android-09207906</t>
+          <t>https://www.technomarket.bg/mini-sistemi/xmart-bs30-x-bass-party-speaker-09221326</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09207906/62baa393660a1.pdf</t>
+          <t>https://www.technomarket.bg/tonkoloni-za-doma/jamo-s7-25hcs-set-blue-09211033</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-77s95f-oled-smart-tv-09229180</t>
+          <t>https://www.technomarket.bg/tonkoloni-za-doma/jamo-s-809-tower-pair-speakers-black-09167173</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229180/682d7c86488c7.pdf</t>
+          <t>https://www.technomarket.bg/tonkoloni-za-doma/jamo-s-805-5-0-hcs-walnut-09188327</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/lg-oled77c51la-oled-evo-ai-smart-tv-09229692</t>
+          <t>https://www.technomarket.bg/tonkoloni-za-doma/jamo-s7-27f-pair-grey-09211032</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229692/68302968cc3e3.pdf</t>
+          <t>https://www.technomarket.bg/tonkoloni-za-doma/jamo-c-9-sur-ii-pair-black-ash-09186497</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/neo-led-24n1s2-hd-led-tv-09201340</t>
+          <t>https://www.technomarket.bg/tonkoloni-za-doma/jamo-s7-27f-pair-blue-09211031</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09201340/627df79fd5b14.pdf</t>
+          <t>https://www.technomarket.bg/tonkoloni-za-doma/aiwa-amr-200dab-all-in-one-amplifier-09210920</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/neo-led-4020-fhd-smart-tv-09183575</t>
+          <t>https://www.technomarket.bg/multimedia-players/xiaomi-mi-pfj4098eu-tv-stick-09188142</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09183575/627df733c8949.pdf</t>
+          <t>https://www.technomarket.bg/multimedia-players/amazon-b091g3wt74-fire-tv-stick-lite-09219946</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/hisense-85e7q-pro-uhd-qled-smart-tv-09231727</t>
+          <t>https://www.technomarket.bg/multimedia-players/apple-mnc83zm-a-tv-remote-09210752</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09231727/6877524b9eaa1.PDF</t>
+          <t>https://www.technomarket.bg/multimedia-players/apple-mxgy2so-a-tv-4k-32gb-2021-09202106</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/sony-kd-65x75wlpaep-uhd-led-smart-tv-android-09214014</t>
+          <t>https://www.technomarket.bg/multimedia-players/apple-mn873so-a-tv-4k-wi-fi-with-64gb-09210750</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09214014/6470727e665d4.pdf</t>
+          <t>https://www.technomarket.bg/multimedia-players/apple-mxh02so-a-tv-4k-64gb2021-09202107</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/neo-led-24t2s2-hd-led-tv-09201341</t>
+          <t>https://www.technomarket.bg/multimedia-players/amazon-b0btfcp86m-fire-tv-stick-4k-max-gen-2-2023-09219945</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09201341/627df85becb68.pdf</t>
+          <t>https://www.technomarket.bg/multimedia-players/xiaomi-pfj4151eu-mdz-28-aa-tv-box-s-2nd-gen-09215460</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/sony-bravia-8-k-55xr80paep-oled-smart-tv-android-09222967</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/xmart-audio-adapter-2023-usb-type-c-aux-3-5mm-09211947</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222967/6674131aba854.pdf</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/audioquest-tower-stereo-m3-5-2rca-1-0m-09201157</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/hisense-55e7q-pro-uhd-qled-smart-tv-09231718</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/audioquest-tower-stereo-m3-5-f3-5-3-0m-09201156</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09231718/68774c04a22f8.PDF</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/audioquest-pearl-a-b-1-5m-09201150</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-43qned80a3a-qned-smart-tv-09231747</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/xmart-br11-bluetooth-audio-receiver-3-5mm-09210753</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09231747/68a55a3eae903.pdf</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/hama-205095-udylzhitelen-audio-kabel-2chinch-2chinch-5m-09206347</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/philips-50pus8010-uhd-led-smart-tv-09232277</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/cellular-aql-audio-cable-3-5mm-3-5mm-1m-bk-09157385</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09232277/68a55baf3e252.pdf</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/audioquest-tower-stereo-m3-5-m3-5-1-5m-09201155</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/sony-kd-75x85laep-uhd-led-smart-tv-android-09214529</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/diva-stereo-3-5-2-rca-cable-1-8m-09171677</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09214529/649add06bbd2d.pdf</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/vivanco-46207-audio-kabel-spirala-3-5mm-3-5mm-ygyl-90-1-5m-09210221</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65qn80f-neo-qled-smart-tv-09229163</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/audioquest-nrg-x-3-1-0m-09206485</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229163/6811c7f60de50.pdf</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/vivanco-46029-kabel-2xrca-m-3-5-mm-m-1-5m-09210215</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/sony-bravia-5-k-65xr59b-mini-led-smart-tv-09229626</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/cellular-cable-3-5mm-3-5mm-white-09152937</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229626/6836b5535ff27.pdf</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/vivanco-46212-mini-makara-2x1-5mm2-kabel-za-audio-k-10m-09210223</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/sony-k-55xr8m25bp-oled-smart-tv-09230643</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/vivanco-46137-audio-kabel-3-5-mm-stereo-pod-ygyl-90-1-5m-09210218</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09230643/685519c8f03d4.pdf</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/philips-stereo-audio-cable-swa2521w-10-09052686</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/sony-bravia-3-k-65s35b-uhd-led-smart-tv-09229624</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/norstone-cl150-2x1-5mm-1m-audio-kabel-09189491</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229624/6836ae7a36905.pdf</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/vivanco-46099-audio-kabel-spirala-3-5mm-3-5mm-1m-09210216</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/sony-bravia-5-k-65xr55b-mini-led-smart-tv-09230641</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/audioquest-nrg-x-2-1-0m-09206486</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09230641/68551d03bdddb.pdf</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/audioquest-pearl-rj-e-3-0m-09201154</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-ue-27f6002f-fhd-smart-tv-09237150</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/audioquest-pearl-rj-e-1-5m-09201153</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09237150/68fa090fc1241.pdf</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/vivanco-46206-audio-kabel-spirala-3-5mm-3-5mm-ygyl-90-0-75m-09210220</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/neo-led-24b12vm-hd-led-tv-09227152</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/philips-swa2533w-10-audio-cable-3-5mm-3-5mm-3m-bk-09175736</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09227152/67b477bd74c6c.pdf</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/hama-83182-ac82-audio-con-d-to-a-09209019</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-55qned70a6a-qned-smart-tv-09237057</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/philips-stereo-cable-y-swa2520w-10-3m-09162434</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-77s90f-oled-smart-tv-09229159</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/vivanco-46215-a-kabel-s-makara-3-5-mm-zhak-3-5-mm-zhak-1-1m-09210224</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229159/682d7acce8b0c.pdf</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/vivanco-46126-kabel-2xrca-m-2xrca-m-yglov-09210217</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-50qned70a6a-qned-smart-tv-09237056</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/hama-121776-spliter-hdmi-4k-cheren-09203714</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/lg-oled83c51la-oled-evo-ai-smart-tv-09229534</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/hama-83180-ac80-audio-con-d-to-a-09209018</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229534/682dd1dc6a0c6.pdf</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/diva-stereo-stereo-3-5-spiral-cable-1-0m-09171673</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/sony-bravia-3-k-55s35b-uhd-led-smart-tv-09229623</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/norstone-cl250-2x2-5mm-1m-audio-kabel-09189492</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229623/6836ad680f415.pdf</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/hama-201701-adapter-hama-usb-type-c-3-5mm-09223570</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/sony-bravia-3-k-65s39b-uhd-led-smart-tv-09229622</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/hama-200730-audio-kabel-usb-type-c-rca-stereo-1-5m-09223525</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229622/6836ae38ccf8c.pdf</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/hama-201523-adapter-lightning-kym-3-5-audio-zhak-bql-09223527</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/hisense-65a6q-uhd-smart-tv-09229823</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/audioquest-pearl-optical-1-5m-09201151</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229823/6900718978e82.PDF</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/audioquest-pearl-optical-3-0m-09201152</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/hisense-55u7q-pro-mini-led-qled-ai-smart-09229816</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/hama-205134-optichen-audio-kabel-odt-1-5m-09206350</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/hisense-75e7q-uhd-qled-smart-tv-09231722</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/diva-optical-audio-cable-3m-09171670</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09231722/68774dbe2c637.PDF</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/hama-205135-optichen-audio-kabel-odt-3m-09206349</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-50nano81t3a-uhd-led-smart-tv-09222561</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/vivanco-46010-kabel-rca-2xrca-m-2xrca-m-1-5m-09210213</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222561/6672beb8cc816.pdf</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/cellular-audio-cable-3-5mm-3-5mm-1m-bk-09152938</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-ue-24f6002f-fhd-smart-tv-09237149</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/diva-stereo-3-5-2-rca-cable-3-0m-09171678</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09237149/68fa00f202a74.pdf</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/diva-audio-adapter-bluetooth-3-5mm-09161310</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-55ua74003lb-uhd-led-ai-smart-tv-09236664</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/diva-stereo-stereo-3-5-cable-1-8m-09171676</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/sony-kd-50x75wlpaep-uhd-led-smart-tv-android-09214418</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/diva-stereo-stereo-3-5-cable-1-5m-09171675</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09214418/649a7c72e9746.pdf</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/diva-optical-audio-cable-1-8m-09171669</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-55s95f-oled-smart-tv-09229178</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/diva-stereo-m-stereo-f-3-5-cable-1-5m-09171681</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229178/682d7ba061487.pdf</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/hama-205286-audio-kabel-3-5mm-stereo-zhak-90-gradusa-1-5m-09206339</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-50ua74003lb-uhd-led-ai-smart-tv-09236663</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/diva-optical-audio-cable-1-5m-09171668</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/lg-50qned80a3a-qned-smart-tv-09229211</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/hama-205262-audio-kabel-3-5mm-stereo-zhak-1-5m-09206340</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229211/6810b5ca100c1.pdf</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/diva-stereo-stereo-3-5-cable-1-0m-09171674</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizor/tcl-43p6k-uhd-led-smart-google-tv-09231910</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/hama-205285-audio-kabel-3-5mm-stereo-zhak-90-gradusa-0-5m-09206338</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09231910/6894a6473834a.pdf</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/hama-205259-udylzhitelen-audio-kabel-2chinch-2chinch-1-5m-09206346</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-75-83/tcl-75c645-qled-smart-google-tv-09214618</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/hama-205139-optichen-audio-kabel-odt-odt1-5m-09206348</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09214618/64a2bf5cd86f4.pdf</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/hama-205111-audio-kabel-3-5mm-stereo-zhak-2-chincha-3m-09206344</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/samsung-qe-85ls03d-the-frame-qled-smart-tv-09221579</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/hama-205115-audio-kabel-3-5mm-stereo-zhak-3m-09206341</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221579/661e67c993597.pdf</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/hama-205110-audio-kabel-3-5mm-stereo-zhak-2-chincha-1-5m-09206345</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65qn95c-neo-qled-smart-tv-09212760</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/diva-stereo-3-5-2-rca-cable-5-0m-09171679</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09212760/640f1399a5b9a.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="656">
-      <c r="A656" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75qn700c-8k-neo-qled-smart-tv-09212748</t>
-        </is>
-      </c>
-    </row>
-    <row r="657">
-      <c r="A657" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09212748/640f0a3f1fc23.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizor/hisense-55e7nq-uhd-qled-smart-tv-09223803</t>
-        </is>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09223803/66b9eae45e297.PDF</t>
-        </is>
-      </c>
-    </row>
-    <row r="660">
-      <c r="A660" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizor/tcl-50c805-qled-smart-google-tv-09217476</t>
-        </is>
-      </c>
-    </row>
-    <row r="661">
-      <c r="A661" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09217476/651aea11ec6af.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="662">
-      <c r="A662" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-77s95c-oled-smart-tv-09212768</t>
-        </is>
-      </c>
-    </row>
-    <row r="663">
-      <c r="A663" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09212768/6437bab994314.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="664">
-      <c r="A664" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-75-83/lg-oled77c31la-oled-smart-tv-09216128</t>
-        </is>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09216128/64df53d4470cf.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="666">
-      <c r="A666" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-75-83/lg-oled83m39la-oled-smart-tv-09220753</t>
-        </is>
-      </c>
-    </row>
-    <row r="667">
-      <c r="A667" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09220753/65f15ab20c6c7.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="668">
-      <c r="A668" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizor/sony-xr-55a95laep-oled-smart-tv-android-09216816</t>
-        </is>
-      </c>
-    </row>
-    <row r="669">
-      <c r="A669" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09216816/6512b85be6d59.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-75-83/sony-kd-75x80laep-uhd-led-smart-tv-android-09221768</t>
-        </is>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221768/662b49c2d2e49.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="672">
-      <c r="A672" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65qn95d-neo-qled-smart-tv-09221494</t>
-        </is>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221494/66178d33c0d01.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/samsung-qe-85qn95d-neo-qled-smart-tv-09221492</t>
-        </is>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221492/66178ad2abd63.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-60-65/hisense-65a85q-oled-uhd-smart-tv-09229820</t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229820/68c18538e106a.PDF</t>
-        </is>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-75-83/lg-oled77c41la-oled-smart-tv-09222071</t>
-        </is>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222071/665ecddd655c7.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-83s90d-oled-smart-tv-09222970</t>
-        </is>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222970/66746e5491842.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizor/tcl-55c655-qled-smart-google-tv-09222161</t>
-        </is>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222161/666c95b2e7e14.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/tcl-115x955-max-mini-led-qled-smart-google-tv-09222174</t>
-        </is>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222174/66702ac59bf7f.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-60-65/lg-oled65g43ls-oled-smart-tv-09222560</t>
-        </is>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222560/6672baaebd578.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-60-65/lg-65ut80003la-uhd-led-smart-tv-09222558</t>
-        </is>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222558/6672a0cd6538b.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75qn95d-neo-qled-smart-tv-09221493</t>
-        </is>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221493/66178ccc19bb4.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-60-65/philips-65oled770-uhd-oled-smart-tv-09232284</t>
-        </is>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09232284/68a55f46d7c2e.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizor/tcl-55c745-qled-smart-google-tv-09218218</t>
-        </is>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09218218/653673240739b.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/samsung-qe-85q80d-qled-smart-tv-09221764</t>
-        </is>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221764/662a2dd7eb157.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-60-65/sony-xr-65a80laep-oled-smart-tv-android-09213301</t>
-        </is>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09213301/643540cf65f45.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizor/hisense-55e7nq-pro-uhd-qled-smart-tv-09223472</t>
-        </is>
-      </c>
-    </row>
-    <row r="701">
-      <c r="A701" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09223472/669f9d6129e12.PDF</t>
-        </is>
-      </c>
-    </row>
-    <row r="702">
-      <c r="A702" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizor/philips-50pus7609-12-uhd-led-smart-tv-09225838</t>
-        </is>
-      </c>
-    </row>
-    <row r="703">
-      <c r="A703" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09225838/673c38fd4cb94.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="704">
-      <c r="A704" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/lg-98qned89t6a-qned-smart-tv-09224734</t>
-        </is>
-      </c>
-    </row>
-    <row r="705">
-      <c r="A705" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09224734/66ed7f4949528.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="706">
-      <c r="A706" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75q70c-qled-smart-tv-09212896</t>
-        </is>
-      </c>
-    </row>
-    <row r="707">
-      <c r="A707" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09212896/6419d5f4c82c9.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="708">
-      <c r="A708" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizor/sony-xr-50x90saep-uhd-led-smart-tv-android-09207144</t>
-        </is>
-      </c>
-    </row>
-    <row r="709">
-      <c r="A709" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09207144/6290b35c3abef.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75qn95c-neo-qled-smart-tv-09212761</t>
-        </is>
-      </c>
-    </row>
-    <row r="711">
-      <c r="A711" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09212761/640f1407693d2.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="712">
-      <c r="A712" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-75-83/lg-oled77b43la-oled-smart-tv-09225086</t>
-        </is>
-      </c>
-    </row>
-    <row r="713">
-      <c r="A713" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09225086/670fa2e9e7297.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="714">
-      <c r="A714" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizor/philips-55oled770-uhd-oled-smart-tv-09232279</t>
-        </is>
-      </c>
-    </row>
-    <row r="715">
-      <c r="A715" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09232279/68a55c0cbdade.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="716">
-      <c r="A716" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-60-65/tcl-65c855-mini-led-qled-smart-google-tv-09222168</t>
-        </is>
-      </c>
-    </row>
-    <row r="717">
-      <c r="A717" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222168/666fd0613c242.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="718">
-      <c r="A718" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-60-65/lg-65qned80t3a-qned-uhd-smart-tv-09225090</t>
-        </is>
-      </c>
-    </row>
-    <row r="719">
-      <c r="A719" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09225090/670fac3ba8159.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="720">
-      <c r="A720" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65q60d-qled-smart-tv-09221230</t>
-        </is>
-      </c>
-    </row>
-    <row r="721">
-      <c r="A721" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221230/660428d5a31d1.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="722">
-      <c r="A722" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-55qn95c-neo-qled-smart-tv-09212759</t>
-        </is>
-      </c>
-    </row>
-    <row r="723">
-      <c r="A723" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09212759/640f12ce159a4.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="724">
-      <c r="A724" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-75-83/lg-oled83g33la-oled-smart-tv-09220749</t>
-        </is>
-      </c>
-    </row>
-    <row r="725">
-      <c r="A725" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09220749/65f15c28642a0.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="726">
-      <c r="A726" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-60-65/philips-65oled820-uhd-oled-smart-tv-09232285</t>
-        </is>
-      </c>
-    </row>
-    <row r="727">
-      <c r="A727" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09232285/68a55f746727d.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="728">
-      <c r="A728" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-43ls01d-the-serif-qled-smart-tv-09225912</t>
-        </is>
-      </c>
-    </row>
-    <row r="729">
-      <c r="A729" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09225912/673de275b0d7f.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="730">
-      <c r="A730" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/samsung-qe-85qn85d-neo-qled-smart-tv-09221506</t>
-        </is>
-      </c>
-    </row>
-    <row r="731">
-      <c r="A731" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221506/6616756b4a6c6.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="732">
-      <c r="A732" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/hisense-85e7nq-pro-uhd-qled-smart-tv-09223806</t>
-        </is>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09223806/66b9ec6733abc.PDF</t>
-        </is>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizor/sony-kd-55x80laep-uhd-led-smart-tv-android-09221529</t>
-        </is>
-      </c>
-    </row>
-    <row r="735">
-      <c r="A735" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221529/66164a1fcc771.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="736">
-      <c r="A736" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-60-65/sony-k-65xr8m25-oled-smart-tv-09230644</t>
-        </is>
-      </c>
-    </row>
-    <row r="737">
-      <c r="A737" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09230644/68551a3606ee9.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="738">
-      <c r="A738" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75qn85c-neo-qled-smart-tv-09212751</t>
-        </is>
-      </c>
-    </row>
-    <row r="739">
-      <c r="A739" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09212751/640f0d2bcfc45.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="740">
-      <c r="A740" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65qn90c-neo-qled-smart-tv-09212756</t>
-        </is>
-      </c>
-    </row>
-    <row r="741">
-      <c r="A741" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09212756/640f1026624a2.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="742">
-      <c r="A742" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-48s90d-oled-smart-tv-09222986</t>
-        </is>
-      </c>
-    </row>
-    <row r="743">
-      <c r="A743" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222986/667560898d073.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="744">
-      <c r="A744" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75qn900d-8k-neo-qled-smart-tv-09221504</t>
-        </is>
-      </c>
-    </row>
-    <row r="745">
-      <c r="A745" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221504/6617a2ce38371.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="746">
-      <c r="A746" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-75-83/samsung-qe-75ls03d-the-frame-qled-smart-tv-09221578</t>
-        </is>
-      </c>
-    </row>
-    <row r="747">
-      <c r="A747" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221578/661e66f899ecb.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="748">
-      <c r="A748" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-nad-85/hisense-100e7nq-pro-uhd-qled-smart-tv-09223475</t>
-        </is>
-      </c>
-    </row>
-    <row r="749">
-      <c r="A749" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09223475/669fa007458e7.PDF</t>
-        </is>
-      </c>
-    </row>
-    <row r="750">
-      <c r="A750" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-60-65/hisense-65u6kq-mini-led-qled-smart-tv-09219278</t>
-        </is>
-      </c>
-    </row>
-    <row r="751">
-      <c r="A751" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09219278/6568af764f7bb.PDF</t>
-        </is>
-      </c>
-    </row>
-    <row r="752">
-      <c r="A752" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65qn85d-neo-qled-smart-tv-09221508</t>
-        </is>
-      </c>
-    </row>
-    <row r="753">
-      <c r="A753" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221508/66167651af078.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="754">
-      <c r="A754" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-60-65/sony-kd-65x80laep-uhd-led-smart-tv-android-09221530</t>
-        </is>
-      </c>
-    </row>
-    <row r="755">
-      <c r="A755" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221530/66164bd6be3cb.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="756">
-      <c r="A756" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizor/sony-kd-43x80lpaep-uhd-led-smart-tv-android-09221527</t>
-        </is>
-      </c>
-    </row>
-    <row r="757">
-      <c r="A757" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221527/6616475f9970a.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="758">
-      <c r="A758" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizor/lg-55nano80a3b-nanocell-ai-smart-tv-09228879</t>
-        </is>
-      </c>
-    </row>
-    <row r="759">
-      <c r="A759" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09228879/680f846c1735f.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="760">
-      <c r="A760" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-75-83/lg-75ut91003la-uhd-led-smart-tv-09225947</t>
-        </is>
-      </c>
-    </row>
-    <row r="761">
-      <c r="A761" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09225947/6740832cc13d9.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="762">
-      <c r="A762" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-60-65/samsung-qe-65qn800d-8k-neo-qled-smart-tv-09221511</t>
-        </is>
-      </c>
-    </row>
-    <row r="763">
-      <c r="A763" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221511/6617981c697d0.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="764">
-      <c r="A764" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-75-83/hisense-75a6k-uhd-smart-tv-09218402</t>
-        </is>
-      </c>
-    </row>
-    <row r="765">
-      <c r="A765" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09218402/653f6fe64ca18.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="766">
-      <c r="A766" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-55q70d-qled-smart-tv-09221232</t>
-        </is>
-      </c>
-    </row>
-    <row r="767">
-      <c r="A767" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09221232/6606a885de957.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="768">
-      <c r="A768" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-75-83/sony-xr-75x90laep-uhd-led-smart-tv-android-09222228</t>
-        </is>
-      </c>
-    </row>
-    <row r="769">
-      <c r="A769" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222228/664f2f8e6ff13.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="770">
-      <c r="A770" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizor/lg-55qned85a3c-qned-smart-tv-09230634</t>
-        </is>
-      </c>
-    </row>
-    <row r="771">
-      <c r="A771" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09230634/686e549f10261.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="772">
-      <c r="A772" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizor/sony-kd-55x85l-uhd-led-smart-tv-android-09214519</t>
-        </is>
-      </c>
-    </row>
-    <row r="773">
-      <c r="A773" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09214519/649ada1252ebb.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="774">
-      <c r="A774" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizor/hisense-32a4q-hd-smart-tv-09231715</t>
-        </is>
-      </c>
-    </row>
-    <row r="775">
-      <c r="A775" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09231715/68774628b4aab.PDF</t>
-        </is>
-      </c>
-    </row>
-    <row r="776">
-      <c r="A776" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizor/hisense-55e7q-uhd-qled-smart-tv-09231717</t>
-        </is>
-      </c>
-    </row>
-    <row r="777">
-      <c r="A777" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09231717/68774b002e813.PDF</t>
-        </is>
-      </c>
-    </row>
-    <row r="778">
-      <c r="A778" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizor/samsung-qe-55s85f-oled-smart-tv-09229174</t>
-        </is>
-      </c>
-    </row>
-    <row r="779">
-      <c r="A779" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229174/6811d1abf10c7.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="780">
-      <c r="A780" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizor/kivi-24h760qb-hd-smart-android-tv-09235538</t>
-        </is>
-      </c>
-    </row>
-    <row r="781">
-      <c r="A781" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09235538/68c024d95b67c.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="782">
-      <c r="A782" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizor/tcl-55p6k-uhd-led-smart-google-tv-09222151</t>
-        </is>
-      </c>
-    </row>
-    <row r="783">
-      <c r="A783" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222151/66701fd97832b.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="784">
-      <c r="A784" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-75-83/tcl-75p6k-uhd-led-smart-google-tv-09230855</t>
-        </is>
-      </c>
-    </row>
-    <row r="785">
-      <c r="A785" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09230855/685d2eee00343.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="786">
-      <c r="A786" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-60-65/sony-bravia-8-k-65xr80p-oled-smart-tv-android-09222968</t>
-        </is>
-      </c>
-    </row>
-    <row r="787">
-      <c r="A787" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222968/667414889022b.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="788">
-      <c r="A788" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizor/kivi-55u760qw-uhd-smart-android-tv-white-09225962</t>
-        </is>
-      </c>
-    </row>
-    <row r="789">
-      <c r="A789" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09225962/674d451f78767.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="790">
-      <c r="A790" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizor/tcl-50p6k-uhd-led-smart-google-tv-09230854</t>
-        </is>
-      </c>
-    </row>
-    <row r="791">
-      <c r="A791" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09230854/685d2dbd6bc5a.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="792">
-      <c r="A792" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizor/hisense-55u7q-mini-led-qled-ai-smart-tv-09229815</t>
-        </is>
-      </c>
-    </row>
-    <row r="793">
-      <c r="A793" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229815/686b91b9abc55.PDF</t>
-        </is>
-      </c>
-    </row>
-    <row r="794">
-      <c r="A794" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-75-83/hisense-75u7q-pro-mini-led-qled-ai-smart-09229821</t>
-        </is>
-      </c>
-    </row>
-    <row r="795">
-      <c r="A795" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229821/686e54445bf9b.PDF</t>
-        </is>
-      </c>
-    </row>
-    <row r="796">
-      <c r="A796" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-75-83/hisense-75a6q-uhd-smart-tv-09231721</t>
-        </is>
-      </c>
-    </row>
-    <row r="797">
-      <c r="A797" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09231721/68774d13d8fb1.PDF</t>
-        </is>
-      </c>
-    </row>
-    <row r="798">
-      <c r="A798" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-60-65/hisense-65e7q-pro-uhd-qled-smart-tv-09231720</t>
-        </is>
-      </c>
-    </row>
-    <row r="799">
-      <c r="A799" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09231720/68774cb9285ba.PDF</t>
-        </is>
-      </c>
-    </row>
-    <row r="800">
-      <c r="A800" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-75-83/lg-75qned80t3a-qned-uhd-smart-tv-09225088</t>
-        </is>
-      </c>
-    </row>
-    <row r="801">
-      <c r="A801" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09225088/670faba82f1c1.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="802">
-      <c r="A802" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-60-65/tcl-65p8k-qled-smart-google-tv-09229315</t>
-        </is>
-      </c>
-    </row>
-    <row r="803">
-      <c r="A803" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09229315/682d8e504ce4b.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="804">
-      <c r="A804" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-60-65/hisense-65e7q-uhd-qled-smart-tv-09231719</t>
-        </is>
-      </c>
-    </row>
-    <row r="805">
-      <c r="A805" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09231719/68774c4c00bb6.PDF</t>
-        </is>
-      </c>
-    </row>
-    <row r="806">
-      <c r="A806" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizor/kivi-43u760qw-uhd-smart-android-tv-white-09224881</t>
-        </is>
-      </c>
-    </row>
-    <row r="807">
-      <c r="A807" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09224881/66f55e4489983.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="808">
-      <c r="A808" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizori-60-65/tcl-65c655-pro-qled-smart-google-tv-09222167</t>
-        </is>
-      </c>
-    </row>
-    <row r="809">
-      <c r="A809" t="inlineStr">
-        <is>
-          <t>https://cdn.technomarket.bg/uploads/library/product/09222167/666cb0e4b989f.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="810">
-      <c r="A810" t="inlineStr">
-        <is>
-          <t>https://www.technomarket.bg/televizor/lg-43ua74003lb-uhd-led-ai-smart-tv-09237054</t>
+          <t>https://www.technomarket.bg/audio-aksesoari-tv/hama-205130-audio-kabel-3-5mm-stereo-zhak-1-5m-pozlaten-09206343</t>
         </is>
       </c>
     </row>
